--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.49122183719296</v>
+        <v>20.4912218371929</v>
       </c>
       <c r="C2">
-        <v>23.86023390631365</v>
+        <v>23.86023390631374</v>
       </c>
       <c r="D2">
-        <v>8.070644700941209</v>
+        <v>8.070644700941196</v>
       </c>
       <c r="E2">
         <v>9.619566873286573</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.63848039300549</v>
+        <v>64.63848039300554</v>
       </c>
       <c r="I2">
-        <v>4.618002547936026</v>
+        <v>4.618002547935946</v>
       </c>
       <c r="J2">
-        <v>20.97647133388539</v>
+        <v>20.97647133388542</v>
       </c>
       <c r="K2">
         <v>15.6133050687904</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.81699563353807</v>
+        <v>18.81699563353814</v>
       </c>
       <c r="C3">
         <v>22.04515481920561</v>
@@ -459,7 +459,7 @@
         <v>7.569119783353331</v>
       </c>
       <c r="E3">
-        <v>9.048279960957096</v>
+        <v>9.048279960957109</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.5376052541189</v>
+        <v>60.53760525411904</v>
       </c>
       <c r="I3">
-        <v>4.536427809510156</v>
+        <v>4.536427809510164</v>
       </c>
       <c r="J3">
-        <v>19.3066560680396</v>
+        <v>19.30665606803969</v>
       </c>
       <c r="K3">
         <v>14.58643764020468</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.76335863174915</v>
+        <v>17.76335863174934</v>
       </c>
       <c r="C4">
-        <v>20.92332635519078</v>
+        <v>20.92332635519079</v>
       </c>
       <c r="D4">
-        <v>7.258280849947031</v>
+        <v>7.258280849947178</v>
       </c>
       <c r="E4">
-        <v>8.696548579611489</v>
+        <v>8.696548579611525</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.95726215523037</v>
+        <v>57.95726215523131</v>
       </c>
       <c r="I4">
-        <v>4.491012360217616</v>
+        <v>4.491012360217551</v>
       </c>
       <c r="J4">
-        <v>18.25032286579415</v>
+        <v>18.25032286579422</v>
       </c>
       <c r="K4">
-        <v>13.95286066803</v>
+        <v>13.95286066803003</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32685311876716</v>
+        <v>17.32685311876703</v>
       </c>
       <c r="C5">
-        <v>20.46540942229323</v>
+        <v>20.46540942229315</v>
       </c>
       <c r="D5">
-        <v>7.130832469686115</v>
+        <v>7.130832469686106</v>
       </c>
       <c r="E5">
-        <v>8.552913581366901</v>
+        <v>8.552913581366878</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.88928665922474</v>
+        <v>56.88928665922486</v>
       </c>
       <c r="I5">
-        <v>4.473596428136485</v>
+        <v>4.473596428136453</v>
       </c>
       <c r="J5">
-        <v>17.81136709796129</v>
+        <v>17.81136709796116</v>
       </c>
       <c r="K5">
-        <v>13.69244707020876</v>
+        <v>13.69244707020872</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.25392309718302</v>
+        <v>17.25392309718319</v>
       </c>
       <c r="C6">
-        <v>20.38888435782399</v>
+        <v>20.38888435782423</v>
       </c>
       <c r="D6">
-        <v>7.109622339716437</v>
+        <v>7.109622339716341</v>
       </c>
       <c r="E6">
-        <v>8.529044374403675</v>
+        <v>8.529044374403684</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.71093949645382</v>
+        <v>56.71093949645392</v>
       </c>
       <c r="I6">
-        <v>4.470768186143936</v>
+        <v>4.470768186143931</v>
       </c>
       <c r="J6">
-        <v>17.7379482521553</v>
+        <v>17.73794825215549</v>
       </c>
       <c r="K6">
-        <v>13.64906924488085</v>
+        <v>13.64906924488089</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>17.75750147985735</v>
       </c>
       <c r="C7">
-        <v>20.91718325482098</v>
+        <v>20.91718325482084</v>
       </c>
       <c r="D7">
-        <v>7.256565215206082</v>
+        <v>7.256565215206027</v>
       </c>
       <c r="E7">
-        <v>8.694612720792632</v>
+        <v>8.694612720792627</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.94292650895855</v>
+        <v>57.94292650895817</v>
       </c>
       <c r="I7">
-        <v>4.490773167306742</v>
+        <v>4.490773167306745</v>
       </c>
       <c r="J7">
-        <v>18.24443815212489</v>
+        <v>18.24443815212483</v>
       </c>
       <c r="K7">
-        <v>13.94935775351137</v>
+        <v>13.94935775351136</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9188108729789</v>
+        <v>19.91881087297892</v>
       </c>
       <c r="C8">
-        <v>23.24141300148044</v>
+        <v>23.24141300148032</v>
       </c>
       <c r="D8">
-        <v>7.89827266073401</v>
+        <v>7.898272660733942</v>
       </c>
       <c r="E8">
-        <v>9.422727937850686</v>
+        <v>9.422727937850658</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.23686939958435</v>
+        <v>63.23686939958436</v>
       </c>
       <c r="I8">
-        <v>4.588852040132045</v>
+        <v>4.588852040132007</v>
       </c>
       <c r="J8">
-        <v>20.40671637140528</v>
+        <v>20.40671637140527</v>
       </c>
       <c r="K8">
-        <v>15.25527247240978</v>
+        <v>15.25527247240981</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99396457990896</v>
+        <v>23.9939645799091</v>
       </c>
       <c r="C9">
-        <v>27.60646649443638</v>
+        <v>27.60646649443646</v>
       </c>
       <c r="D9">
-        <v>9.144550600374656</v>
+        <v>9.144550600374727</v>
       </c>
       <c r="E9">
-        <v>10.92396157112218</v>
+        <v>10.92396157112216</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.17925171004175</v>
+        <v>73.17925171004183</v>
       </c>
       <c r="I9">
-        <v>4.946633606777108</v>
+        <v>4.946633606777029</v>
       </c>
       <c r="J9">
-        <v>24.43895598459501</v>
+        <v>24.43895598459511</v>
       </c>
       <c r="K9">
-        <v>18.09625809142918</v>
+        <v>18.09625809142922</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96397750979483</v>
+        <v>26.96397750979519</v>
       </c>
       <c r="C10">
-        <v>30.726364810069</v>
+        <v>30.72636481006919</v>
       </c>
       <c r="D10">
-        <v>10.1823145775612</v>
+        <v>10.18231457756129</v>
       </c>
       <c r="E10">
-        <v>12.17416201217226</v>
+        <v>12.17416201217228</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.33386430562099</v>
+        <v>80.3338643056226</v>
       </c>
       <c r="I10">
-        <v>5.365469603002559</v>
+        <v>5.365469603002531</v>
       </c>
       <c r="J10">
-        <v>27.34476674296198</v>
+        <v>27.34476674296224</v>
       </c>
       <c r="K10">
-        <v>20.15844929026598</v>
+        <v>20.15844929026605</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33467676905642</v>
+        <v>28.33467676905646</v>
       </c>
       <c r="C11">
-        <v>32.14799736784644</v>
+        <v>32.14799736784641</v>
       </c>
       <c r="D11">
-        <v>10.65414470627261</v>
+        <v>10.65414470627253</v>
       </c>
       <c r="E11">
-        <v>12.7435383881686</v>
+        <v>12.74353838816857</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.59766443589315</v>
+        <v>83.59766443589322</v>
       </c>
       <c r="I11">
-        <v>5.558910580098689</v>
+        <v>5.558910580098679</v>
       </c>
       <c r="J11">
-        <v>28.67700592168248</v>
+        <v>28.67700592168245</v>
       </c>
       <c r="K11">
-        <v>21.09704550769741</v>
+        <v>21.09704550769733</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85953063137567</v>
+        <v>28.85953063137584</v>
       </c>
       <c r="C12">
-        <v>32.68922786459861</v>
+        <v>32.68922786459865</v>
       </c>
       <c r="D12">
-        <v>10.8336059385312</v>
+        <v>10.83360593853116</v>
       </c>
       <c r="E12">
-        <v>12.96028903693135</v>
+        <v>12.96028903693132</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.84002994853044</v>
+        <v>84.84002994853068</v>
       </c>
       <c r="I12">
-        <v>5.632953204997704</v>
+        <v>5.632953204997707</v>
       </c>
       <c r="J12">
-        <v>29.1856857138941</v>
+        <v>29.18568571389421</v>
       </c>
       <c r="K12">
-        <v>21.45424819130618</v>
+        <v>21.45424819130617</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.74617715499944</v>
+        <v>28.74617715499951</v>
       </c>
       <c r="C13">
-        <v>32.57248535923709</v>
+        <v>32.57248535923726</v>
       </c>
       <c r="D13">
-        <v>10.79490438883859</v>
+        <v>10.79490438883867</v>
       </c>
       <c r="E13">
-        <v>12.91353661521566</v>
+        <v>12.91353661521561</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.57207612279839</v>
+        <v>84.57207612279838</v>
       </c>
       <c r="I13">
-        <v>5.61696419917602</v>
+        <v>5.61696419917592</v>
       </c>
       <c r="J13">
-        <v>29.07589286036629</v>
+        <v>29.07589286036634</v>
       </c>
       <c r="K13">
         <v>21.37720561364317</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.37771977347495</v>
+        <v>28.377719773475</v>
       </c>
       <c r="C14">
-        <v>32.19244903264683</v>
+        <v>32.19244903264706</v>
       </c>
       <c r="D14">
-        <v>10.66888752282952</v>
+        <v>10.6688875228295</v>
       </c>
       <c r="E14">
-        <v>12.76134046729432</v>
+        <v>12.76134046729435</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.69970959629805</v>
+        <v>83.69970959629882</v>
       </c>
       <c r="I14">
-        <v>5.564983638602268</v>
+        <v>5.564983638602233</v>
       </c>
       <c r="J14">
-        <v>28.71875253420966</v>
+        <v>28.71875253420979</v>
       </c>
       <c r="K14">
-        <v>21.12638531233686</v>
+        <v>21.12638531233694</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.15289028124968</v>
+        <v>28.15289028124961</v>
       </c>
       <c r="C15">
-        <v>31.96013270928029</v>
+        <v>31.96013270928023</v>
       </c>
       <c r="D15">
-        <v>10.59183064384052</v>
+        <v>10.59183064384058</v>
       </c>
       <c r="E15">
-        <v>12.66830150170593</v>
+        <v>12.66830150170586</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.16638145198054</v>
+        <v>83.16638145198073</v>
       </c>
       <c r="I15">
-        <v>5.533260387885802</v>
+        <v>5.533260387885706</v>
       </c>
       <c r="J15">
-        <v>28.50063525860908</v>
+        <v>28.50063525860902</v>
       </c>
       <c r="K15">
-        <v>20.97304249511473</v>
+        <v>20.97304249511468</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.87502636700473</v>
+        <v>26.87502636700454</v>
       </c>
       <c r="C16">
-        <v>30.63370439971901</v>
+        <v>30.63370439971884</v>
       </c>
       <c r="D16">
-        <v>10.15153884993629</v>
+        <v>10.15153884993641</v>
       </c>
       <c r="E16">
-        <v>12.13704691450589</v>
+        <v>12.13704691450597</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.12114918439985</v>
+        <v>80.12114918439893</v>
       </c>
       <c r="I16">
-        <v>5.352915237883493</v>
+        <v>5.352915237883503</v>
       </c>
       <c r="J16">
-        <v>27.25812128242632</v>
+        <v>27.25812128242617</v>
       </c>
       <c r="K16">
-        <v>20.09725315127799</v>
+        <v>20.09725315127801</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.09795018194731</v>
+        <v>26.09795018194752</v>
       </c>
       <c r="C17">
-        <v>29.82215399248373</v>
+        <v>29.82215399248416</v>
       </c>
       <c r="D17">
-        <v>9.88187722689227</v>
+        <v>9.881877226892358</v>
       </c>
       <c r="E17">
-        <v>11.81195083308413</v>
+        <v>11.81195083308416</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.25845488330141</v>
+        <v>78.25845488330275</v>
       </c>
       <c r="I17">
-        <v>5.243250880517264</v>
+        <v>5.243250880517084</v>
       </c>
       <c r="J17">
-        <v>26.50019296598012</v>
+        <v>26.50019296598038</v>
       </c>
       <c r="K17">
-        <v>19.56116086351241</v>
+        <v>19.56116086351252</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65261933604738</v>
+        <v>25.65261933604754</v>
       </c>
       <c r="C18">
-        <v>29.35540325919138</v>
+        <v>29.35540325919136</v>
       </c>
       <c r="D18">
-        <v>9.726689148767647</v>
+        <v>9.726689148767592</v>
       </c>
       <c r="E18">
         <v>11.62494732684673</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.18755145975857</v>
+        <v>77.18755145975898</v>
       </c>
       <c r="I18">
-        <v>5.180420380605444</v>
+        <v>5.180420380605414</v>
       </c>
       <c r="J18">
-        <v>26.0650260750237</v>
+        <v>26.06502607502368</v>
       </c>
       <c r="K18">
-        <v>19.25273349296677</v>
+        <v>19.25273349296673</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.50204125872524</v>
+        <v>25.50204125872517</v>
       </c>
       <c r="C19">
-        <v>29.19731035763942</v>
+        <v>29.19731035763937</v>
       </c>
       <c r="D19">
-        <v>9.674109370494168</v>
+        <v>9.674109370494216</v>
       </c>
       <c r="E19">
-        <v>11.56160162629461</v>
+        <v>11.56160162629459</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.82491389128292</v>
+        <v>76.82491389128261</v>
       </c>
       <c r="I19">
-        <v>5.159179902122716</v>
+        <v>5.159179902122696</v>
       </c>
       <c r="J19">
-        <v>25.91775036012027</v>
+        <v>25.91775036012023</v>
       </c>
       <c r="K19">
-        <v>19.14824792941933</v>
+        <v>19.14824792941931</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.1804848416748</v>
+        <v>26.18048484167493</v>
       </c>
       <c r="C20">
-        <v>29.90852584192341</v>
+        <v>29.90852584192358</v>
       </c>
       <c r="D20">
-        <v>9.91058690889043</v>
+        <v>9.910586908890433</v>
       </c>
       <c r="E20">
-        <v>11.84655309245062</v>
+        <v>11.84655309245066</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.45666176709852</v>
+        <v>78.45666176709875</v>
       </c>
       <c r="I20">
-        <v>5.254897138704369</v>
+        <v>5.254897138704403</v>
       </c>
       <c r="J20">
-        <v>26.58077891051801</v>
+        <v>26.58077891051811</v>
       </c>
       <c r="K20">
-        <v>19.61822659495055</v>
+        <v>19.61822659495063</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.48575827881458</v>
+        <v>28.48575827881453</v>
       </c>
       <c r="C21">
-        <v>32.30397174003001</v>
+        <v>32.30397174003004</v>
       </c>
       <c r="D21">
-        <v>10.70587230882902</v>
+        <v>10.70587230882907</v>
       </c>
       <c r="E21">
-        <v>12.80600309331362</v>
+        <v>12.8060030933136</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.95571999573133</v>
+        <v>83.95571999573119</v>
       </c>
       <c r="I21">
-        <v>5.580226474739724</v>
+        <v>5.580226474739686</v>
       </c>
       <c r="J21">
-        <v>28.8235134133852</v>
+        <v>28.82351341338515</v>
       </c>
       <c r="K21">
-        <v>21.19999257759391</v>
+        <v>21.19999257759392</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.02843596976979</v>
+        <v>30.02843596976983</v>
       </c>
       <c r="C22">
-        <v>33.88829132676081</v>
+        <v>33.88829132676101</v>
       </c>
       <c r="D22">
-        <v>11.23085513750878</v>
+        <v>11.23085513750906</v>
       </c>
       <c r="E22">
-        <v>13.44048577456738</v>
+        <v>13.4404857745674</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87.59108786172608</v>
+        <v>87.59108786172669</v>
       </c>
       <c r="I22">
-        <v>5.79774287750527</v>
+        <v>5.797742877505159</v>
       </c>
       <c r="J22">
-        <v>30.31571487965304</v>
+        <v>30.31571487965316</v>
       </c>
       <c r="K22">
-        <v>22.24539813035866</v>
+        <v>22.24539813035875</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.2004974304114</v>
+        <v>29.20049743041141</v>
       </c>
       <c r="C23">
         <v>33.03989576503246</v>
       </c>
       <c r="D23">
-        <v>10.94983023633246</v>
+        <v>10.94983023633239</v>
       </c>
       <c r="E23">
-        <v>13.10072226808478</v>
+        <v>13.10072226808462</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.64480768796251</v>
+        <v>85.64480768796206</v>
       </c>
       <c r="I23">
-        <v>5.68103992034344</v>
+        <v>5.681039920343305</v>
       </c>
       <c r="J23">
-        <v>29.51571858627014</v>
+        <v>29.51571858627016</v>
       </c>
       <c r="K23">
-        <v>21.68564954430337</v>
+        <v>21.6856495443033</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>26.14316670655575</v>
       </c>
       <c r="C24">
-        <v>29.86947786737224</v>
+        <v>29.86947786737241</v>
       </c>
       <c r="D24">
-        <v>9.897607805805848</v>
+        <v>9.897607805805775</v>
       </c>
       <c r="E24">
-        <v>11.83090980064678</v>
+        <v>11.83090980064677</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.36705284308644</v>
+        <v>78.36705284308665</v>
       </c>
       <c r="I24">
-        <v>5.249631215545061</v>
+        <v>5.249631215545073</v>
       </c>
       <c r="J24">
-        <v>26.54434440018781</v>
+        <v>26.54434440018791</v>
       </c>
       <c r="K24">
-        <v>19.5924279855487</v>
+        <v>19.59242798554873</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90240483072156</v>
+        <v>22.90240483072144</v>
       </c>
       <c r="C25">
-        <v>26.44660880717942</v>
+        <v>26.44660880717927</v>
       </c>
       <c r="D25">
-        <v>8.804360127405703</v>
+        <v>8.804360127405769</v>
       </c>
       <c r="E25">
         <v>10.46251999301827</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.52679020040222</v>
+        <v>70.52679020040178</v>
       </c>
       <c r="I25">
-        <v>4.793103723059337</v>
+        <v>4.793103723059334</v>
       </c>
       <c r="J25">
-        <v>23.36420542543442</v>
+        <v>23.36420542543433</v>
       </c>
       <c r="K25">
-        <v>17.32849082915837</v>
+        <v>17.32849082915827</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.4912218371929</v>
+        <v>20.49122183719296</v>
       </c>
       <c r="C2">
-        <v>23.86023390631374</v>
+        <v>23.86023390631365</v>
       </c>
       <c r="D2">
-        <v>8.070644700941196</v>
+        <v>8.070644700941209</v>
       </c>
       <c r="E2">
         <v>9.619566873286573</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.63848039300554</v>
+        <v>64.63848039300549</v>
       </c>
       <c r="I2">
-        <v>4.618002547935946</v>
+        <v>4.618002547936026</v>
       </c>
       <c r="J2">
-        <v>20.97647133388542</v>
+        <v>20.97647133388539</v>
       </c>
       <c r="K2">
         <v>15.6133050687904</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.81699563353814</v>
+        <v>18.81699563353807</v>
       </c>
       <c r="C3">
         <v>22.04515481920561</v>
@@ -459,7 +459,7 @@
         <v>7.569119783353331</v>
       </c>
       <c r="E3">
-        <v>9.048279960957109</v>
+        <v>9.048279960957096</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.53760525411904</v>
+        <v>60.5376052541189</v>
       </c>
       <c r="I3">
-        <v>4.536427809510164</v>
+        <v>4.536427809510156</v>
       </c>
       <c r="J3">
-        <v>19.30665606803969</v>
+        <v>19.3066560680396</v>
       </c>
       <c r="K3">
         <v>14.58643764020468</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.76335863174934</v>
+        <v>17.76335863174915</v>
       </c>
       <c r="C4">
-        <v>20.92332635519079</v>
+        <v>20.92332635519078</v>
       </c>
       <c r="D4">
-        <v>7.258280849947178</v>
+        <v>7.258280849947031</v>
       </c>
       <c r="E4">
-        <v>8.696548579611525</v>
+        <v>8.696548579611489</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.95726215523131</v>
+        <v>57.95726215523037</v>
       </c>
       <c r="I4">
-        <v>4.491012360217551</v>
+        <v>4.491012360217616</v>
       </c>
       <c r="J4">
-        <v>18.25032286579422</v>
+        <v>18.25032286579415</v>
       </c>
       <c r="K4">
-        <v>13.95286066803003</v>
+        <v>13.95286066803</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32685311876703</v>
+        <v>17.32685311876716</v>
       </c>
       <c r="C5">
-        <v>20.46540942229315</v>
+        <v>20.46540942229323</v>
       </c>
       <c r="D5">
-        <v>7.130832469686106</v>
+        <v>7.130832469686115</v>
       </c>
       <c r="E5">
-        <v>8.552913581366878</v>
+        <v>8.552913581366901</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.88928665922486</v>
+        <v>56.88928665922474</v>
       </c>
       <c r="I5">
-        <v>4.473596428136453</v>
+        <v>4.473596428136485</v>
       </c>
       <c r="J5">
-        <v>17.81136709796116</v>
+        <v>17.81136709796129</v>
       </c>
       <c r="K5">
-        <v>13.69244707020872</v>
+        <v>13.69244707020876</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.25392309718319</v>
+        <v>17.25392309718302</v>
       </c>
       <c r="C6">
-        <v>20.38888435782423</v>
+        <v>20.38888435782399</v>
       </c>
       <c r="D6">
-        <v>7.109622339716341</v>
+        <v>7.109622339716437</v>
       </c>
       <c r="E6">
-        <v>8.529044374403684</v>
+        <v>8.529044374403675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.71093949645392</v>
+        <v>56.71093949645382</v>
       </c>
       <c r="I6">
-        <v>4.470768186143931</v>
+        <v>4.470768186143936</v>
       </c>
       <c r="J6">
-        <v>17.73794825215549</v>
+        <v>17.7379482521553</v>
       </c>
       <c r="K6">
-        <v>13.64906924488089</v>
+        <v>13.64906924488085</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>17.75750147985735</v>
       </c>
       <c r="C7">
-        <v>20.91718325482084</v>
+        <v>20.91718325482098</v>
       </c>
       <c r="D7">
-        <v>7.256565215206027</v>
+        <v>7.256565215206082</v>
       </c>
       <c r="E7">
-        <v>8.694612720792627</v>
+        <v>8.694612720792632</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.94292650895817</v>
+        <v>57.94292650895855</v>
       </c>
       <c r="I7">
-        <v>4.490773167306745</v>
+        <v>4.490773167306742</v>
       </c>
       <c r="J7">
-        <v>18.24443815212483</v>
+        <v>18.24443815212489</v>
       </c>
       <c r="K7">
-        <v>13.94935775351136</v>
+        <v>13.94935775351137</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.91881087297892</v>
+        <v>19.9188108729789</v>
       </c>
       <c r="C8">
-        <v>23.24141300148032</v>
+        <v>23.24141300148044</v>
       </c>
       <c r="D8">
-        <v>7.898272660733942</v>
+        <v>7.89827266073401</v>
       </c>
       <c r="E8">
-        <v>9.422727937850658</v>
+        <v>9.422727937850686</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.23686939958436</v>
+        <v>63.23686939958435</v>
       </c>
       <c r="I8">
-        <v>4.588852040132007</v>
+        <v>4.588852040132045</v>
       </c>
       <c r="J8">
-        <v>20.40671637140527</v>
+        <v>20.40671637140528</v>
       </c>
       <c r="K8">
-        <v>15.25527247240981</v>
+        <v>15.25527247240978</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.9939645799091</v>
+        <v>23.99396457990896</v>
       </c>
       <c r="C9">
-        <v>27.60646649443646</v>
+        <v>27.60646649443638</v>
       </c>
       <c r="D9">
-        <v>9.144550600374727</v>
+        <v>9.144550600374656</v>
       </c>
       <c r="E9">
-        <v>10.92396157112216</v>
+        <v>10.92396157112218</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.17925171004183</v>
+        <v>73.17925171004175</v>
       </c>
       <c r="I9">
-        <v>4.946633606777029</v>
+        <v>4.946633606777108</v>
       </c>
       <c r="J9">
-        <v>24.43895598459511</v>
+        <v>24.43895598459501</v>
       </c>
       <c r="K9">
-        <v>18.09625809142922</v>
+        <v>18.09625809142918</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96397750979519</v>
+        <v>26.96397750979483</v>
       </c>
       <c r="C10">
-        <v>30.72636481006919</v>
+        <v>30.726364810069</v>
       </c>
       <c r="D10">
-        <v>10.18231457756129</v>
+        <v>10.1823145775612</v>
       </c>
       <c r="E10">
-        <v>12.17416201217228</v>
+        <v>12.17416201217226</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.3338643056226</v>
+        <v>80.33386430562099</v>
       </c>
       <c r="I10">
-        <v>5.365469603002531</v>
+        <v>5.365469603002559</v>
       </c>
       <c r="J10">
-        <v>27.34476674296224</v>
+        <v>27.34476674296198</v>
       </c>
       <c r="K10">
-        <v>20.15844929026605</v>
+        <v>20.15844929026598</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33467676905646</v>
+        <v>28.33467676905642</v>
       </c>
       <c r="C11">
-        <v>32.14799736784641</v>
+        <v>32.14799736784644</v>
       </c>
       <c r="D11">
-        <v>10.65414470627253</v>
+        <v>10.65414470627261</v>
       </c>
       <c r="E11">
-        <v>12.74353838816857</v>
+        <v>12.7435383881686</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.59766443589322</v>
+        <v>83.59766443589315</v>
       </c>
       <c r="I11">
-        <v>5.558910580098679</v>
+        <v>5.558910580098689</v>
       </c>
       <c r="J11">
-        <v>28.67700592168245</v>
+        <v>28.67700592168248</v>
       </c>
       <c r="K11">
-        <v>21.09704550769733</v>
+        <v>21.09704550769741</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85953063137584</v>
+        <v>28.85953063137567</v>
       </c>
       <c r="C12">
-        <v>32.68922786459865</v>
+        <v>32.68922786459861</v>
       </c>
       <c r="D12">
-        <v>10.83360593853116</v>
+        <v>10.8336059385312</v>
       </c>
       <c r="E12">
-        <v>12.96028903693132</v>
+        <v>12.96028903693135</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.84002994853068</v>
+        <v>84.84002994853044</v>
       </c>
       <c r="I12">
-        <v>5.632953204997707</v>
+        <v>5.632953204997704</v>
       </c>
       <c r="J12">
-        <v>29.18568571389421</v>
+        <v>29.1856857138941</v>
       </c>
       <c r="K12">
-        <v>21.45424819130617</v>
+        <v>21.45424819130618</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.74617715499951</v>
+        <v>28.74617715499944</v>
       </c>
       <c r="C13">
-        <v>32.57248535923726</v>
+        <v>32.57248535923709</v>
       </c>
       <c r="D13">
-        <v>10.79490438883867</v>
+        <v>10.79490438883859</v>
       </c>
       <c r="E13">
-        <v>12.91353661521561</v>
+        <v>12.91353661521566</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.57207612279838</v>
+        <v>84.57207612279839</v>
       </c>
       <c r="I13">
-        <v>5.61696419917592</v>
+        <v>5.61696419917602</v>
       </c>
       <c r="J13">
-        <v>29.07589286036634</v>
+        <v>29.07589286036629</v>
       </c>
       <c r="K13">
         <v>21.37720561364317</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.377719773475</v>
+        <v>28.37771977347495</v>
       </c>
       <c r="C14">
-        <v>32.19244903264706</v>
+        <v>32.19244903264683</v>
       </c>
       <c r="D14">
-        <v>10.6688875228295</v>
+        <v>10.66888752282952</v>
       </c>
       <c r="E14">
-        <v>12.76134046729435</v>
+        <v>12.76134046729432</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.69970959629882</v>
+        <v>83.69970959629805</v>
       </c>
       <c r="I14">
-        <v>5.564983638602233</v>
+        <v>5.564983638602268</v>
       </c>
       <c r="J14">
-        <v>28.71875253420979</v>
+        <v>28.71875253420966</v>
       </c>
       <c r="K14">
-        <v>21.12638531233694</v>
+        <v>21.12638531233686</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.15289028124961</v>
+        <v>28.15289028124968</v>
       </c>
       <c r="C15">
-        <v>31.96013270928023</v>
+        <v>31.96013270928029</v>
       </c>
       <c r="D15">
-        <v>10.59183064384058</v>
+        <v>10.59183064384052</v>
       </c>
       <c r="E15">
-        <v>12.66830150170586</v>
+        <v>12.66830150170593</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.16638145198073</v>
+        <v>83.16638145198054</v>
       </c>
       <c r="I15">
-        <v>5.533260387885706</v>
+        <v>5.533260387885802</v>
       </c>
       <c r="J15">
-        <v>28.50063525860902</v>
+        <v>28.50063525860908</v>
       </c>
       <c r="K15">
-        <v>20.97304249511468</v>
+        <v>20.97304249511473</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.87502636700454</v>
+        <v>26.87502636700473</v>
       </c>
       <c r="C16">
-        <v>30.63370439971884</v>
+        <v>30.63370439971901</v>
       </c>
       <c r="D16">
-        <v>10.15153884993641</v>
+        <v>10.15153884993629</v>
       </c>
       <c r="E16">
-        <v>12.13704691450597</v>
+        <v>12.13704691450589</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.12114918439893</v>
+        <v>80.12114918439985</v>
       </c>
       <c r="I16">
-        <v>5.352915237883503</v>
+        <v>5.352915237883493</v>
       </c>
       <c r="J16">
-        <v>27.25812128242617</v>
+        <v>27.25812128242632</v>
       </c>
       <c r="K16">
-        <v>20.09725315127801</v>
+        <v>20.09725315127799</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.09795018194752</v>
+        <v>26.09795018194731</v>
       </c>
       <c r="C17">
-        <v>29.82215399248416</v>
+        <v>29.82215399248373</v>
       </c>
       <c r="D17">
-        <v>9.881877226892358</v>
+        <v>9.88187722689227</v>
       </c>
       <c r="E17">
-        <v>11.81195083308416</v>
+        <v>11.81195083308413</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.25845488330275</v>
+        <v>78.25845488330141</v>
       </c>
       <c r="I17">
-        <v>5.243250880517084</v>
+        <v>5.243250880517264</v>
       </c>
       <c r="J17">
-        <v>26.50019296598038</v>
+        <v>26.50019296598012</v>
       </c>
       <c r="K17">
-        <v>19.56116086351252</v>
+        <v>19.56116086351241</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65261933604754</v>
+        <v>25.65261933604738</v>
       </c>
       <c r="C18">
-        <v>29.35540325919136</v>
+        <v>29.35540325919138</v>
       </c>
       <c r="D18">
-        <v>9.726689148767592</v>
+        <v>9.726689148767647</v>
       </c>
       <c r="E18">
         <v>11.62494732684673</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.18755145975898</v>
+        <v>77.18755145975857</v>
       </c>
       <c r="I18">
-        <v>5.180420380605414</v>
+        <v>5.180420380605444</v>
       </c>
       <c r="J18">
-        <v>26.06502607502368</v>
+        <v>26.0650260750237</v>
       </c>
       <c r="K18">
-        <v>19.25273349296673</v>
+        <v>19.25273349296677</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.50204125872517</v>
+        <v>25.50204125872524</v>
       </c>
       <c r="C19">
-        <v>29.19731035763937</v>
+        <v>29.19731035763942</v>
       </c>
       <c r="D19">
-        <v>9.674109370494216</v>
+        <v>9.674109370494168</v>
       </c>
       <c r="E19">
-        <v>11.56160162629459</v>
+        <v>11.56160162629461</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.82491389128261</v>
+        <v>76.82491389128292</v>
       </c>
       <c r="I19">
-        <v>5.159179902122696</v>
+        <v>5.159179902122716</v>
       </c>
       <c r="J19">
-        <v>25.91775036012023</v>
+        <v>25.91775036012027</v>
       </c>
       <c r="K19">
-        <v>19.14824792941931</v>
+        <v>19.14824792941933</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.18048484167493</v>
+        <v>26.1804848416748</v>
       </c>
       <c r="C20">
-        <v>29.90852584192358</v>
+        <v>29.90852584192341</v>
       </c>
       <c r="D20">
-        <v>9.910586908890433</v>
+        <v>9.91058690889043</v>
       </c>
       <c r="E20">
-        <v>11.84655309245066</v>
+        <v>11.84655309245062</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.45666176709875</v>
+        <v>78.45666176709852</v>
       </c>
       <c r="I20">
-        <v>5.254897138704403</v>
+        <v>5.254897138704369</v>
       </c>
       <c r="J20">
-        <v>26.58077891051811</v>
+        <v>26.58077891051801</v>
       </c>
       <c r="K20">
-        <v>19.61822659495063</v>
+        <v>19.61822659495055</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.48575827881453</v>
+        <v>28.48575827881458</v>
       </c>
       <c r="C21">
-        <v>32.30397174003004</v>
+        <v>32.30397174003001</v>
       </c>
       <c r="D21">
-        <v>10.70587230882907</v>
+        <v>10.70587230882902</v>
       </c>
       <c r="E21">
-        <v>12.8060030933136</v>
+        <v>12.80600309331362</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.95571999573119</v>
+        <v>83.95571999573133</v>
       </c>
       <c r="I21">
-        <v>5.580226474739686</v>
+        <v>5.580226474739724</v>
       </c>
       <c r="J21">
-        <v>28.82351341338515</v>
+        <v>28.8235134133852</v>
       </c>
       <c r="K21">
-        <v>21.19999257759392</v>
+        <v>21.19999257759391</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.02843596976983</v>
+        <v>30.02843596976979</v>
       </c>
       <c r="C22">
-        <v>33.88829132676101</v>
+        <v>33.88829132676081</v>
       </c>
       <c r="D22">
-        <v>11.23085513750906</v>
+        <v>11.23085513750878</v>
       </c>
       <c r="E22">
-        <v>13.4404857745674</v>
+        <v>13.44048577456738</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87.59108786172669</v>
+        <v>87.59108786172608</v>
       </c>
       <c r="I22">
-        <v>5.797742877505159</v>
+        <v>5.79774287750527</v>
       </c>
       <c r="J22">
-        <v>30.31571487965316</v>
+        <v>30.31571487965304</v>
       </c>
       <c r="K22">
-        <v>22.24539813035875</v>
+        <v>22.24539813035866</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.20049743041141</v>
+        <v>29.2004974304114</v>
       </c>
       <c r="C23">
         <v>33.03989576503246</v>
       </c>
       <c r="D23">
-        <v>10.94983023633239</v>
+        <v>10.94983023633246</v>
       </c>
       <c r="E23">
-        <v>13.10072226808462</v>
+        <v>13.10072226808478</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.64480768796206</v>
+        <v>85.64480768796251</v>
       </c>
       <c r="I23">
-        <v>5.681039920343305</v>
+        <v>5.68103992034344</v>
       </c>
       <c r="J23">
-        <v>29.51571858627016</v>
+        <v>29.51571858627014</v>
       </c>
       <c r="K23">
-        <v>21.6856495443033</v>
+        <v>21.68564954430337</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>26.14316670655575</v>
       </c>
       <c r="C24">
-        <v>29.86947786737241</v>
+        <v>29.86947786737224</v>
       </c>
       <c r="D24">
-        <v>9.897607805805775</v>
+        <v>9.897607805805848</v>
       </c>
       <c r="E24">
-        <v>11.83090980064677</v>
+        <v>11.83090980064678</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.36705284308665</v>
+        <v>78.36705284308644</v>
       </c>
       <c r="I24">
-        <v>5.249631215545073</v>
+        <v>5.249631215545061</v>
       </c>
       <c r="J24">
-        <v>26.54434440018791</v>
+        <v>26.54434440018781</v>
       </c>
       <c r="K24">
-        <v>19.59242798554873</v>
+        <v>19.5924279855487</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90240483072144</v>
+        <v>22.90240483072156</v>
       </c>
       <c r="C25">
-        <v>26.44660880717927</v>
+        <v>26.44660880717942</v>
       </c>
       <c r="D25">
-        <v>8.804360127405769</v>
+        <v>8.804360127405703</v>
       </c>
       <c r="E25">
         <v>10.46251999301827</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.52679020040178</v>
+        <v>70.52679020040222</v>
       </c>
       <c r="I25">
-        <v>4.793103723059334</v>
+        <v>4.793103723059337</v>
       </c>
       <c r="J25">
-        <v>23.36420542543433</v>
+        <v>23.36420542543442</v>
       </c>
       <c r="K25">
-        <v>17.32849082915827</v>
+        <v>17.32849082915837</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.49122183719296</v>
+        <v>20.33605905334387</v>
       </c>
       <c r="C2">
-        <v>23.86023390631365</v>
+        <v>23.76133357931239</v>
       </c>
       <c r="D2">
-        <v>8.070644700941209</v>
+        <v>8.050841040957861</v>
       </c>
       <c r="E2">
-        <v>9.619566873286573</v>
+        <v>9.586144699065681</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.064183732423094</v>
       </c>
       <c r="H2">
-        <v>64.63848039300549</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.618002547936026</v>
+        <v>64.69779394062581</v>
       </c>
       <c r="J2">
-        <v>20.97647133388539</v>
+        <v>4.596997467115331</v>
       </c>
       <c r="K2">
-        <v>15.6133050687904</v>
+        <v>20.82187292147915</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.58650486465806</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.81699563353807</v>
+        <v>18.67848541872439</v>
       </c>
       <c r="C3">
-        <v>22.04515481920561</v>
+        <v>21.99236333923922</v>
       </c>
       <c r="D3">
-        <v>7.569119783353331</v>
+        <v>7.551901767548788</v>
       </c>
       <c r="E3">
-        <v>9.048279960957096</v>
+        <v>9.015406030070771</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.084277757074974</v>
       </c>
       <c r="H3">
-        <v>60.5376052541189</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.536427809510156</v>
+        <v>60.62929352280554</v>
       </c>
       <c r="J3">
-        <v>19.3066560680396</v>
+        <v>4.514683891430384</v>
       </c>
       <c r="K3">
-        <v>14.58643764020468</v>
+        <v>19.16598672016667</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.5785395238237</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.76335863174915</v>
+        <v>17.63589432975475</v>
       </c>
       <c r="C4">
-        <v>20.92332635519078</v>
+        <v>20.90316090189126</v>
       </c>
       <c r="D4">
-        <v>7.258280849947031</v>
+        <v>7.242638313045413</v>
       </c>
       <c r="E4">
-        <v>8.696548579611489</v>
+        <v>8.663808274754025</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.096621583868426</v>
       </c>
       <c r="H4">
-        <v>57.95726215523037</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.491012360217616</v>
+        <v>58.06998460377173</v>
       </c>
       <c r="J4">
-        <v>18.25032286579415</v>
+        <v>4.468768676552566</v>
       </c>
       <c r="K4">
-        <v>13.95286066803</v>
+        <v>18.11874640162029</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.95175992110208</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32685311876716</v>
+        <v>17.20413238049217</v>
       </c>
       <c r="C5">
-        <v>20.46540942229323</v>
+        <v>20.45176511781548</v>
       </c>
       <c r="D5">
-        <v>7.130832469686115</v>
+        <v>7.115832543443415</v>
       </c>
       <c r="E5">
-        <v>8.552913581366901</v>
+        <v>8.520180347540006</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.101667312213817</v>
       </c>
       <c r="H5">
-        <v>56.88928665922474</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.473596428136485</v>
+        <v>57.01091283658592</v>
       </c>
       <c r="J5">
-        <v>17.81136709796129</v>
+        <v>4.451139356075307</v>
       </c>
       <c r="K5">
-        <v>13.69244707020876</v>
+        <v>17.68365946322884</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.69423156451424</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.25392309718302</v>
+        <v>17.13200574181849</v>
       </c>
       <c r="C6">
-        <v>20.38888435782399</v>
+        <v>20.37634670945006</v>
       </c>
       <c r="D6">
-        <v>7.109622339716437</v>
+        <v>7.094729243414857</v>
       </c>
       <c r="E6">
-        <v>8.529044374403675</v>
+        <v>8.496309545432846</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.102506458953626</v>
       </c>
       <c r="H6">
-        <v>56.71093949645382</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.470768186143936</v>
+        <v>56.83406531201385</v>
       </c>
       <c r="J6">
-        <v>17.7379482521553</v>
+        <v>4.448275142315442</v>
       </c>
       <c r="K6">
-        <v>13.64906924488085</v>
+        <v>17.6108937232735</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.65134010930446</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.75750147985735</v>
+        <v>17.63010012163975</v>
       </c>
       <c r="C7">
-        <v>20.91718325482098</v>
+        <v>20.89710417732203</v>
       </c>
       <c r="D7">
-        <v>7.256565215206082</v>
+        <v>7.240931338237642</v>
       </c>
       <c r="E7">
-        <v>8.694612720792632</v>
+        <v>8.661872698884119</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.096689552500817</v>
       </c>
       <c r="H7">
-        <v>57.94292650895855</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.490773167306742</v>
+        <v>58.05576764024142</v>
       </c>
       <c r="J7">
-        <v>18.24443815212489</v>
+        <v>4.468526642960999</v>
       </c>
       <c r="K7">
-        <v>13.94935775351137</v>
+        <v>18.11291316584552</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.94829543669712</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9188108729789</v>
+        <v>19.76924060982432</v>
       </c>
       <c r="C8">
-        <v>23.24141300148044</v>
+        <v>23.14865974014014</v>
       </c>
       <c r="D8">
-        <v>7.89827266073401</v>
+        <v>7.879365542980167</v>
       </c>
       <c r="E8">
-        <v>9.422727937850686</v>
+        <v>9.389539426892851</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.071120048353137</v>
       </c>
       <c r="H8">
-        <v>63.23686939958435</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.588852040132045</v>
+        <v>63.30713243893927</v>
       </c>
       <c r="J8">
-        <v>20.40671637140528</v>
+        <v>4.567603006702835</v>
       </c>
       <c r="K8">
-        <v>15.25527247240978</v>
+        <v>20.25682507169466</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.24048143454197</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99396457990896</v>
+        <v>23.80583124903486</v>
       </c>
       <c r="C9">
-        <v>27.60646649443638</v>
+        <v>27.47170354005758</v>
       </c>
       <c r="D9">
-        <v>9.144550600374656</v>
+        <v>9.115318928317288</v>
       </c>
       <c r="E9">
-        <v>10.92396157112218</v>
+        <v>10.90155677591283</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.020250532745365</v>
       </c>
       <c r="H9">
-        <v>73.17925171004175</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.946633606777108</v>
+        <v>73.17297272656762</v>
       </c>
       <c r="J9">
-        <v>24.43895598459501</v>
+        <v>4.962485146785394</v>
       </c>
       <c r="K9">
-        <v>18.09625809142918</v>
+        <v>24.25605027835492</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.01701822910427</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96397750979483</v>
+        <v>26.74796798650617</v>
       </c>
       <c r="C10">
-        <v>30.726364810069</v>
+        <v>30.56195464616753</v>
       </c>
       <c r="D10">
-        <v>10.1823145775612</v>
+        <v>10.1476426337887</v>
       </c>
       <c r="E10">
-        <v>12.17416201217226</v>
+        <v>12.14584506512279</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.981036240231471</v>
       </c>
       <c r="H10">
-        <v>80.33386430562099</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.365469603002559</v>
+        <v>80.27158942784529</v>
       </c>
       <c r="J10">
-        <v>27.34476674296198</v>
+        <v>5.377436534692903</v>
       </c>
       <c r="K10">
-        <v>20.15844929026598</v>
+        <v>27.13731019401941</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.06648382090779</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33467676905642</v>
+        <v>28.10530301315908</v>
       </c>
       <c r="C11">
-        <v>32.14799736784644</v>
+        <v>31.96963549868811</v>
       </c>
       <c r="D11">
-        <v>10.65414470627261</v>
+        <v>10.61664371638945</v>
       </c>
       <c r="E11">
-        <v>12.7435383881686</v>
+        <v>12.71205808218435</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.962350393734003</v>
       </c>
       <c r="H11">
-        <v>83.59766443589315</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.558910580098689</v>
+        <v>83.50861601171611</v>
       </c>
       <c r="J11">
-        <v>28.67700592168248</v>
+        <v>5.56900855201294</v>
       </c>
       <c r="K11">
-        <v>21.09704550769741</v>
+        <v>28.45763263595762</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.9986355601403</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85953063137567</v>
+        <v>28.62489894409068</v>
       </c>
       <c r="C12">
-        <v>32.68922786459861</v>
+        <v>32.5054255445245</v>
       </c>
       <c r="D12">
-        <v>10.8336059385312</v>
+        <v>10.79495776914177</v>
       </c>
       <c r="E12">
-        <v>12.96028903693135</v>
+        <v>12.92751164695422</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.955099598852769</v>
       </c>
       <c r="H12">
-        <v>84.84002994853044</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.632953204997704</v>
+        <v>84.74048041447674</v>
       </c>
       <c r="J12">
-        <v>29.1856857138941</v>
+        <v>5.642316245528523</v>
       </c>
       <c r="K12">
-        <v>21.45424819130618</v>
+        <v>28.96160392895222</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.3532503361866</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.74617715499944</v>
+        <v>28.51268868719747</v>
       </c>
       <c r="C13">
-        <v>32.57248535923709</v>
+        <v>32.38986359660168</v>
       </c>
       <c r="D13">
-        <v>10.79490438883859</v>
+        <v>10.75650719211965</v>
       </c>
       <c r="E13">
-        <v>12.91353661521566</v>
+        <v>12.88104365235359</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.956670008205465</v>
       </c>
       <c r="H13">
-        <v>84.57207612279839</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.61696419917602</v>
+        <v>84.47480798171941</v>
       </c>
       <c r="J13">
-        <v>29.07589286036629</v>
+        <v>5.626486995804446</v>
       </c>
       <c r="K13">
-        <v>21.37720561364317</v>
+        <v>28.852835695826</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>21.27677280151947</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.37771977347495</v>
+        <v>28.14791812054477</v>
       </c>
       <c r="C14">
-        <v>32.19244903264683</v>
+        <v>32.01364338201365</v>
       </c>
       <c r="D14">
-        <v>10.66888752282952</v>
+        <v>10.63129386138746</v>
       </c>
       <c r="E14">
-        <v>12.76134046729432</v>
+        <v>12.72975567082387</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.961757740096757</v>
       </c>
       <c r="H14">
-        <v>83.69970959629805</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.564983638602268</v>
+        <v>83.60980579455136</v>
       </c>
       <c r="J14">
-        <v>28.71875253420966</v>
+        <v>5.575021785719064</v>
       </c>
       <c r="K14">
-        <v>21.12638531233686</v>
+        <v>28.49899645302447</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.02776580934527</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.15289028124968</v>
+        <v>27.92531755760184</v>
       </c>
       <c r="C15">
-        <v>31.96013270928029</v>
+        <v>31.78364073025948</v>
       </c>
       <c r="D15">
-        <v>10.59183064384052</v>
+        <v>10.55471834330777</v>
       </c>
       <c r="E15">
-        <v>12.66830150170593</v>
+        <v>12.63725888444216</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.964849468914821</v>
       </c>
       <c r="H15">
-        <v>83.16638145198054</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.533260387885802</v>
+        <v>83.08093477128965</v>
       </c>
       <c r="J15">
-        <v>28.50063525860908</v>
+        <v>5.543610187256879</v>
       </c>
       <c r="K15">
-        <v>20.97304249511473</v>
+        <v>28.28287238309127</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20.87551247561162</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.87502636700473</v>
+        <v>26.65986892962255</v>
       </c>
       <c r="C16">
-        <v>30.63370439971901</v>
+        <v>30.47018972871703</v>
       </c>
       <c r="D16">
-        <v>10.15153884993629</v>
+        <v>10.11704278520262</v>
       </c>
       <c r="E16">
-        <v>12.13704691450589</v>
+        <v>12.10892483333734</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.982236208162177</v>
       </c>
       <c r="H16">
-        <v>80.12114918439985</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5.352915237883493</v>
+        <v>80.06058448609184</v>
       </c>
       <c r="J16">
-        <v>27.25812128242632</v>
+        <v>5.365001312639767</v>
       </c>
       <c r="K16">
-        <v>20.09725315127799</v>
+        <v>27.05142174620526</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.00569163001302</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.09795018194731</v>
+        <v>25.89017554188512</v>
       </c>
       <c r="C17">
-        <v>29.82215399248373</v>
+        <v>29.66642746493686</v>
       </c>
       <c r="D17">
-        <v>9.88187722689227</v>
+        <v>9.848880984568556</v>
       </c>
       <c r="E17">
-        <v>11.81195083308413</v>
+        <v>11.78548115352021</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.992652792790202</v>
       </c>
       <c r="H17">
-        <v>78.25845488330141</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.243250880517264</v>
+        <v>78.21271787109491</v>
       </c>
       <c r="J17">
-        <v>26.50019296598012</v>
+        <v>5.256368713888468</v>
       </c>
       <c r="K17">
-        <v>19.56116086351241</v>
+        <v>26.30003676284929</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>19.47306194255169</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65261933604738</v>
+        <v>25.44903440170967</v>
       </c>
       <c r="C18">
-        <v>29.35540325919138</v>
+        <v>29.20411939888761</v>
       </c>
       <c r="D18">
-        <v>9.726689148767647</v>
+        <v>9.69452420374691</v>
       </c>
       <c r="E18">
-        <v>11.62494732684673</v>
+        <v>11.59938593822557</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.998568385023754</v>
       </c>
       <c r="H18">
-        <v>77.18755145975857</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.180420380605444</v>
+        <v>77.1502341533423</v>
       </c>
       <c r="J18">
-        <v>26.0650260750237</v>
+        <v>5.194123059718246</v>
       </c>
       <c r="K18">
-        <v>19.25273349296677</v>
+        <v>25.86856983003009</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.16656866607341</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.50204125872524</v>
+        <v>25.29986754887366</v>
       </c>
       <c r="C19">
-        <v>29.19731035763942</v>
+        <v>29.04752658650398</v>
       </c>
       <c r="D19">
-        <v>9.674109370494168</v>
+        <v>9.642221088708512</v>
       </c>
       <c r="E19">
-        <v>11.56160162629461</v>
+        <v>11.53634126015073</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.000559643518238</v>
       </c>
       <c r="H19">
-        <v>76.82491389128292</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5.159179902122716</v>
+        <v>76.79043289725405</v>
       </c>
       <c r="J19">
-        <v>25.91775036012027</v>
+        <v>5.173079421575628</v>
       </c>
       <c r="K19">
-        <v>19.14824792941933</v>
+        <v>25.72253805875195</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.06272933928306</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.1804848416748</v>
+        <v>25.97193074693027</v>
       </c>
       <c r="C20">
-        <v>29.90852584192341</v>
+        <v>29.75197461194698</v>
       </c>
       <c r="D20">
-        <v>9.91058690889043</v>
+        <v>9.877434398833262</v>
       </c>
       <c r="E20">
-        <v>11.84655309245062</v>
+        <v>11.81991205178764</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.99155210014725</v>
       </c>
       <c r="H20">
-        <v>78.45666176709852</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5.254897138704369</v>
+        <v>78.40935862381347</v>
       </c>
       <c r="J20">
-        <v>26.58077891051801</v>
+        <v>5.267906102707339</v>
       </c>
       <c r="K20">
-        <v>19.61822659495055</v>
+        <v>26.37993326355298</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>19.52976533741585</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.48575827881458</v>
+        <v>28.25488007868386</v>
       </c>
       <c r="C21">
-        <v>32.30397174003001</v>
+        <v>32.12405038588319</v>
       </c>
       <c r="D21">
-        <v>10.70587230882902</v>
+        <v>10.66804494904575</v>
       </c>
       <c r="E21">
-        <v>12.80600309331362</v>
+        <v>12.77415456335902</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.960268609389674</v>
       </c>
       <c r="H21">
-        <v>83.95571999573133</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.580226474739724</v>
+        <v>83.86366474279627</v>
       </c>
       <c r="J21">
-        <v>28.8235134133852</v>
+        <v>5.590114119032171</v>
       </c>
       <c r="K21">
-        <v>21.19999257759391</v>
+        <v>28.60279394473486</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.10084501769291</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.02843596976979</v>
+        <v>29.78173449304411</v>
       </c>
       <c r="C22">
-        <v>33.88829132676081</v>
+        <v>33.69210439574683</v>
       </c>
       <c r="D22">
-        <v>11.23085513750878</v>
+        <v>11.18950812136388</v>
       </c>
       <c r="E22">
-        <v>13.44048577456738</v>
+        <v>13.404627986971</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.938764212118854</v>
       </c>
       <c r="H22">
-        <v>87.59108786172608</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.79774287750527</v>
+        <v>87.46752198384982</v>
       </c>
       <c r="J22">
-        <v>30.31571487965304</v>
+        <v>5.805421076147749</v>
       </c>
       <c r="K22">
-        <v>22.24539813035866</v>
+        <v>30.08078934567396</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.13835992424624</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.2004974304114</v>
+        <v>28.96239971544388</v>
       </c>
       <c r="C23">
-        <v>33.03989576503246</v>
+        <v>32.85252218427175</v>
       </c>
       <c r="D23">
-        <v>10.94983023633246</v>
+        <v>10.91041608280344</v>
       </c>
       <c r="E23">
-        <v>13.10072226808478</v>
+        <v>13.06707458316084</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.950361134468487</v>
       </c>
       <c r="H23">
-        <v>85.64480768796251</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.68103992034344</v>
+        <v>85.53834804843983</v>
       </c>
       <c r="J23">
-        <v>29.51571858627014</v>
+        <v>5.689918768512098</v>
       </c>
       <c r="K23">
-        <v>21.68564954430337</v>
+        <v>29.28852757684814</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>21.58293083433788</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.14316670655575</v>
+        <v>25.93496516706211</v>
       </c>
       <c r="C24">
-        <v>29.86947786737224</v>
+        <v>29.71329958766342</v>
       </c>
       <c r="D24">
-        <v>9.897607805805848</v>
+        <v>9.864526039163945</v>
       </c>
       <c r="E24">
-        <v>11.83090980064678</v>
+        <v>11.80434636010933</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.992049947058683</v>
       </c>
       <c r="H24">
-        <v>78.36705284308644</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.249631215545061</v>
+        <v>78.32045806246326</v>
       </c>
       <c r="J24">
-        <v>26.54434440018781</v>
+        <v>5.262689424467972</v>
       </c>
       <c r="K24">
-        <v>19.5924279855487</v>
+        <v>26.343810637519</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>19.5041307130536</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90240483072156</v>
+        <v>22.72441385275118</v>
       </c>
       <c r="C25">
-        <v>26.44660880717942</v>
+        <v>26.3227979595916</v>
       </c>
       <c r="D25">
-        <v>8.804360127405703</v>
+        <v>8.780607624265359</v>
       </c>
       <c r="E25">
-        <v>10.46251999301827</v>
+        <v>10.43824555856045</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.034213907029558</v>
       </c>
       <c r="H25">
-        <v>70.52679020040222</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.793103723059337</v>
+        <v>70.54082437974742</v>
       </c>
       <c r="J25">
-        <v>23.36420542543442</v>
+        <v>4.810354552352749</v>
       </c>
       <c r="K25">
-        <v>17.32849082915837</v>
+        <v>23.19010267196153</v>
       </c>
       <c r="L25">
+        <v>17.25360649178618</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.33605905334387</v>
+        <v>29.44522674908065</v>
       </c>
       <c r="C2">
-        <v>23.76133357931239</v>
+        <v>18.27991282810505</v>
       </c>
       <c r="D2">
-        <v>8.050841040957861</v>
+        <v>7.016414817585407</v>
       </c>
       <c r="E2">
-        <v>9.586144699065681</v>
+        <v>5.937068948566241</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.064183732423094</v>
+        <v>2.117472792946993</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.69779394062581</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.596997467115331</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20.82187292147915</v>
+        <v>24.68260757985005</v>
       </c>
       <c r="L2">
-        <v>15.58650486465806</v>
+        <v>6.189896852515838</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.36357655370154</v>
+      </c>
+      <c r="N2">
+        <v>21.74321372912395</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.67848541872439</v>
+        <v>27.69306728599776</v>
       </c>
       <c r="C3">
-        <v>21.99236333923922</v>
+        <v>16.90180432522989</v>
       </c>
       <c r="D3">
-        <v>7.551901767548788</v>
+        <v>6.494050277400977</v>
       </c>
       <c r="E3">
-        <v>9.015406030070771</v>
+        <v>5.741438764608533</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.084277757074974</v>
+        <v>2.134822339802061</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.62929352280554</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.514683891430384</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.16598672016667</v>
+        <v>23.2074873540488</v>
       </c>
       <c r="L3">
-        <v>14.5785395238237</v>
+        <v>6.129189128942842</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.70862329279209</v>
+      </c>
+      <c r="N3">
+        <v>21.39541963237068</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.63589432975475</v>
+        <v>26.60053662968474</v>
       </c>
       <c r="C4">
-        <v>20.90316090189126</v>
+        <v>16.02326526431794</v>
       </c>
       <c r="D4">
-        <v>7.242638313045413</v>
+        <v>6.199432871444839</v>
       </c>
       <c r="E4">
-        <v>8.663808274754025</v>
+        <v>5.620816298003793</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.096621583868426</v>
+        <v>2.145596010920624</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.06998460377173</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.468768676552566</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18.11874640162029</v>
+        <v>22.28807192185268</v>
       </c>
       <c r="L4">
-        <v>13.95175992110208</v>
+        <v>6.095976347330112</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.31196472507366</v>
+      </c>
+      <c r="N4">
+        <v>21.18718291876092</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.20413238049217</v>
+        <v>26.15124124520401</v>
       </c>
       <c r="C5">
-        <v>20.45176511781548</v>
+        <v>15.65680247184001</v>
       </c>
       <c r="D5">
-        <v>7.115832543443415</v>
+        <v>6.083727973110445</v>
       </c>
       <c r="E5">
-        <v>8.520180347540006</v>
+        <v>5.571478380421649</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.101667312213817</v>
+        <v>2.150024719628179</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.01091283658592</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.451139356075307</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.68365946322884</v>
+        <v>21.91005173719939</v>
       </c>
       <c r="L5">
-        <v>13.69423156451424</v>
+        <v>6.083418480526523</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.15173574951706</v>
+      </c>
+      <c r="N5">
+        <v>21.10356749628208</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.13200574181849</v>
+        <v>26.07639590630256</v>
       </c>
       <c r="C6">
-        <v>20.37634670945006</v>
+        <v>15.59543316068942</v>
       </c>
       <c r="D6">
-        <v>7.094729243414857</v>
+        <v>6.064425646406488</v>
       </c>
       <c r="E6">
-        <v>8.496309545432846</v>
+        <v>5.56327336194357</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.102506458953626</v>
+        <v>2.150762633969568</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.83406531201385</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.448275142315442</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.6108937232735</v>
+        <v>21.84708440456679</v>
       </c>
       <c r="L6">
-        <v>13.65134010930446</v>
+        <v>6.081390991487433</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.12521682003277</v>
+      </c>
+      <c r="N6">
+        <v>21.08975580541346</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.63010012163975</v>
+        <v>26.59449353374896</v>
       </c>
       <c r="C7">
-        <v>20.89710417732203</v>
+        <v>16.01835760716165</v>
       </c>
       <c r="D7">
-        <v>7.240931338237642</v>
+        <v>6.197878467020464</v>
       </c>
       <c r="E7">
-        <v>8.661872698884119</v>
+        <v>5.620151717633777</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.096689552500817</v>
+        <v>2.145655572946817</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.05576764024142</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.468526642960999</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.11291316584552</v>
+        <v>22.28298716791666</v>
       </c>
       <c r="L7">
-        <v>13.94829543669712</v>
+        <v>6.095803090138097</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.30979803129288</v>
+      </c>
+      <c r="N7">
+        <v>21.18605033340053</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.76924060982432</v>
+        <v>28.84457279468356</v>
       </c>
       <c r="C8">
-        <v>23.14865974014014</v>
+        <v>17.81125609861774</v>
       </c>
       <c r="D8">
-        <v>7.879365542980167</v>
+        <v>6.839014299972063</v>
       </c>
       <c r="E8">
-        <v>9.389539426892851</v>
+        <v>5.869682526633566</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.071120048353137</v>
+        <v>2.123434890329265</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.30713243893927</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.567603006702835</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.25682507169466</v>
+        <v>24.17684160330533</v>
       </c>
       <c r="L8">
-        <v>15.24048143454197</v>
+        <v>6.168093656236486</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.13661777176516</v>
+      </c>
+      <c r="N8">
+        <v>21.6221320793754</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80583124903486</v>
+        <v>33.12753551962982</v>
       </c>
       <c r="C9">
-        <v>27.47170354005758</v>
+        <v>21.08748865898233</v>
       </c>
       <c r="D9">
-        <v>9.115318928317288</v>
+        <v>8.074464539158098</v>
       </c>
       <c r="E9">
-        <v>10.90155677591283</v>
+        <v>6.358325046480149</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.020250532745365</v>
+        <v>2.080402779251337</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.17297272656762</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.962485146785394</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>24.25605027835492</v>
+        <v>27.78517077571102</v>
       </c>
       <c r="L9">
-        <v>18.01701822910427</v>
+        <v>6.344337095180738</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.80256271088692</v>
+      </c>
+      <c r="N9">
+        <v>22.52449300639627</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.74796798650617</v>
+        <v>36.25662916502522</v>
       </c>
       <c r="C10">
-        <v>30.56195464616753</v>
+        <v>23.37834679594089</v>
       </c>
       <c r="D10">
-        <v>10.1476426337887</v>
+        <v>8.932308019497732</v>
       </c>
       <c r="E10">
-        <v>12.14584506512279</v>
+        <v>6.723050037184157</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.981036240231471</v>
+        <v>2.048418079300439</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.27158942784529</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.377436534692903</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>27.13731019401941</v>
+        <v>30.70511367542404</v>
       </c>
       <c r="L10">
-        <v>20.06648382090779</v>
+        <v>6.498483663871317</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.0599291097722</v>
+      </c>
+      <c r="N10">
+        <v>23.2251607651878</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.10530301315908</v>
+        <v>37.75908305070837</v>
       </c>
       <c r="C11">
-        <v>31.96963549868811</v>
+        <v>24.40406256418924</v>
       </c>
       <c r="D11">
-        <v>10.61664371638945</v>
+        <v>9.314876650525537</v>
       </c>
       <c r="E11">
-        <v>12.71205808218435</v>
+        <v>6.89214915643811</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.962350393734003</v>
+        <v>2.0335864738557</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.50861601171611</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.56900855201294</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>28.45763263595762</v>
+        <v>32.01895345489049</v>
       </c>
       <c r="L11">
-        <v>20.9986355601403</v>
+        <v>6.57497524158597</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.64227062470107</v>
+      </c>
+      <c r="N11">
+        <v>23.55480119883684</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.62489894409068</v>
+        <v>38.32654645123787</v>
       </c>
       <c r="C12">
-        <v>32.5054255445245</v>
+        <v>24.79106020222497</v>
       </c>
       <c r="D12">
-        <v>10.79495776914177</v>
+        <v>9.458973310023387</v>
       </c>
       <c r="E12">
-        <v>12.92751164695422</v>
+        <v>6.956859190331135</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.955099598852769</v>
+        <v>2.027908163894274</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.74048041447674</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.642316245528523</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>28.96160392895222</v>
+        <v>32.51458195312321</v>
       </c>
       <c r="L12">
-        <v>21.3532503361866</v>
+        <v>6.604963138545607</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.89958395029384</v>
+      </c>
+      <c r="N12">
+        <v>23.6814944769283</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51268868719747</v>
+        <v>38.20437708005676</v>
       </c>
       <c r="C13">
-        <v>32.38986359660168</v>
+        <v>24.70775904371553</v>
       </c>
       <c r="D13">
-        <v>10.75650719211965</v>
+        <v>9.427967898476664</v>
       </c>
       <c r="E13">
-        <v>12.88104365235359</v>
+        <v>6.942888547876634</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.956670008205465</v>
+        <v>2.029134237384529</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.47480798171941</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.626486995804446</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>28.852835695826</v>
+        <v>32.40790348574684</v>
       </c>
       <c r="L13">
-        <v>21.27677280151947</v>
+        <v>6.598457291695765</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.8341992506738</v>
+      </c>
+      <c r="N13">
+        <v>23.65412024897288</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.14791812054477</v>
+        <v>37.8057905441341</v>
       </c>
       <c r="C14">
-        <v>32.01364338201365</v>
+        <v>24.4359233430715</v>
       </c>
       <c r="D14">
-        <v>10.63129386138746</v>
+        <v>9.326744931521484</v>
       </c>
       <c r="E14">
-        <v>12.72975567082387</v>
+        <v>6.897457882317076</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.961757740096757</v>
+        <v>2.033120696848854</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.60980579455136</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.575021785719064</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>28.49899645302447</v>
+        <v>32.05975987755514</v>
       </c>
       <c r="L14">
-        <v>21.02776580934527</v>
+        <v>6.577421182612238</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.66052809294825</v>
+      </c>
+      <c r="N14">
+        <v>23.56518495635672</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.92531755760184</v>
+        <v>37.56149146427462</v>
       </c>
       <c r="C15">
-        <v>31.78364073025948</v>
+        <v>24.26926305019643</v>
       </c>
       <c r="D15">
-        <v>10.55471834330777</v>
+        <v>9.264653172319123</v>
       </c>
       <c r="E15">
-        <v>12.63725888444216</v>
+        <v>6.8697257859132</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.964849468914821</v>
+        <v>2.035553737574975</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.08093477128965</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.543610187256879</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>28.28287238309127</v>
+        <v>31.8463020318691</v>
       </c>
       <c r="L15">
-        <v>20.87551247561162</v>
+        <v>6.564672640376975</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.56513396842568</v>
+      </c>
+      <c r="N15">
+        <v>23.51096263880724</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.65986892962255</v>
+        <v>36.15816258978543</v>
       </c>
       <c r="C16">
-        <v>30.47018972871703</v>
+        <v>23.31105929706676</v>
       </c>
       <c r="D16">
-        <v>10.11704278520262</v>
+        <v>8.907178483408073</v>
       </c>
       <c r="E16">
-        <v>12.10892483333734</v>
+        <v>6.712080424233408</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.982236208162177</v>
+        <v>2.049379970380326</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.06058448609184</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.365001312639767</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>27.05142174620526</v>
+        <v>30.61892105619591</v>
       </c>
       <c r="L16">
-        <v>20.00569163001302</v>
+        <v>6.49362149292033</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19.02211166000504</v>
+      </c>
+      <c r="N16">
+        <v>23.20386114216537</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.89017554188512</v>
+        <v>35.31981533218204</v>
       </c>
       <c r="C17">
-        <v>29.66642746493686</v>
+        <v>22.71963470306952</v>
       </c>
       <c r="D17">
-        <v>9.848880984568556</v>
+        <v>8.686128032772416</v>
       </c>
       <c r="E17">
-        <v>11.78548115352021</v>
+        <v>6.61632335452575</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.992652792790202</v>
+        <v>2.057775999130883</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.21271787109491</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.256368713888468</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>26.30003676284929</v>
+        <v>29.86134804221299</v>
       </c>
       <c r="L17">
-        <v>19.47306194255169</v>
+        <v>6.451733933915432</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.69188338509887</v>
+      </c>
+      <c r="N17">
+        <v>23.01844598448398</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.44903440170967</v>
+        <v>34.85822130430126</v>
       </c>
       <c r="C18">
-        <v>29.20411939888761</v>
+        <v>22.37785136089893</v>
       </c>
       <c r="D18">
-        <v>9.69452420374691</v>
+        <v>8.558240582187638</v>
       </c>
       <c r="E18">
-        <v>11.59938593822557</v>
+        <v>6.561530127267318</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.998568385023754</v>
+        <v>2.062580190944857</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.1502341533423</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.194123059718246</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.86856983003009</v>
+        <v>29.42358319201282</v>
       </c>
       <c r="L18">
-        <v>19.16656866607341</v>
+        <v>6.428233325015549</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.5028878404977</v>
+      </c>
+      <c r="N18">
+        <v>22.91280469974386</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.29986754887366</v>
+        <v>34.70180956775735</v>
       </c>
       <c r="C19">
-        <v>29.04752658650398</v>
+        <v>22.26182731518166</v>
       </c>
       <c r="D19">
-        <v>9.642221088708512</v>
+        <v>8.51480320470186</v>
       </c>
       <c r="E19">
-        <v>11.53634126015073</v>
+        <v>6.543021069672926</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.000559643518238</v>
+        <v>2.064203094292227</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.79043289725405</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.173079421575628</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.72253805875195</v>
+        <v>29.27498616733094</v>
       </c>
       <c r="L19">
-        <v>19.06272933928306</v>
+        <v>6.420375226634797</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.4390490767459</v>
+      </c>
+      <c r="N19">
+        <v>22.8772010322025</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97193074693027</v>
+        <v>35.40519303473298</v>
       </c>
       <c r="C20">
-        <v>29.75197461194698</v>
+        <v>22.78275351131425</v>
       </c>
       <c r="D20">
-        <v>9.877434398833262</v>
+        <v>8.709734182138195</v>
       </c>
       <c r="E20">
-        <v>11.81991205178764</v>
+        <v>6.626486097228653</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.99155210014725</v>
+        <v>2.056884953099182</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.40935862381347</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.267906102707339</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>26.37993326355298</v>
+        <v>29.94219593508685</v>
       </c>
       <c r="L20">
-        <v>19.52976533741585</v>
+        <v>6.456130968900534</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.72693666307637</v>
+      </c>
+      <c r="N20">
+        <v>23.03807785205676</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.25488007868386</v>
+        <v>37.92289448620898</v>
       </c>
       <c r="C21">
-        <v>32.12405038588319</v>
+        <v>24.51579797621604</v>
       </c>
       <c r="D21">
-        <v>10.66804494904575</v>
+        <v>9.356494584629173</v>
       </c>
       <c r="E21">
-        <v>12.77415456335902</v>
+        <v>6.910781592136948</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.960268609389674</v>
+        <v>2.031951652422777</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.86366474279627</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.590114119032171</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>28.60279394473486</v>
+        <v>32.16205948895518</v>
       </c>
       <c r="L21">
-        <v>21.10084501769291</v>
+        <v>6.583571288449154</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.70634215290361</v>
+      </c>
+      <c r="N21">
+        <v>23.59125401263297</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.78173449304411</v>
+        <v>39.57334682168199</v>
       </c>
       <c r="C22">
-        <v>33.69210439574683</v>
+        <v>25.64078446922973</v>
       </c>
       <c r="D22">
-        <v>11.18950812136388</v>
+        <v>9.774889845781034</v>
       </c>
       <c r="E22">
-        <v>13.404627986971</v>
+        <v>7.100672701436593</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.938764212118854</v>
+        <v>2.015281650801111</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.46752198384982</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.805421076147749</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>30.08078934567396</v>
+        <v>33.60254514214891</v>
       </c>
       <c r="L22">
-        <v>22.13835992424624</v>
+        <v>6.672887420160343</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.56576000446598</v>
+      </c>
+      <c r="N22">
+        <v>23.96386049631278</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.96239971544388</v>
+        <v>38.6927165606962</v>
       </c>
       <c r="C23">
-        <v>32.85252218427175</v>
+        <v>25.04068635493956</v>
       </c>
       <c r="D23">
-        <v>10.91041608280344</v>
+        <v>9.551848892267214</v>
       </c>
       <c r="E23">
-        <v>13.06707458316084</v>
+        <v>6.998861623582564</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.950361134468487</v>
+        <v>2.024221474129933</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.53834804843983</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.689918768512098</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>29.28852757684814</v>
+        <v>32.834241368481</v>
       </c>
       <c r="L23">
-        <v>21.58293083433788</v>
+        <v>6.624624463165977</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.09543876833415</v>
+      </c>
+      <c r="N23">
+        <v>23.76386002927148</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93496516706211</v>
+        <v>35.36659627963923</v>
       </c>
       <c r="C24">
-        <v>29.71329958766342</v>
+        <v>22.75422306511735</v>
       </c>
       <c r="D24">
-        <v>9.864526039163945</v>
+        <v>8.699064365773117</v>
       </c>
       <c r="E24">
-        <v>11.80434636010933</v>
+        <v>6.62189073082049</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.992049947058683</v>
+        <v>2.057287864469089</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.32045806246326</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.262689424467972</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>26.343810637519</v>
+        <v>29.90565161454442</v>
       </c>
       <c r="L24">
-        <v>19.5041307130536</v>
+        <v>6.454141267054737</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.71108643509228</v>
+      </c>
+      <c r="N24">
+        <v>23.02919932727356</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.72441385275118</v>
+        <v>31.98163330756641</v>
       </c>
       <c r="C25">
-        <v>26.3227979595916</v>
+        <v>20.22410558910338</v>
       </c>
       <c r="D25">
-        <v>8.780607624265359</v>
+        <v>7.749912037838882</v>
       </c>
       <c r="E25">
-        <v>10.43824555856045</v>
+        <v>6.225665789277548</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.034213907029558</v>
+        <v>2.092050771660031</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.54082437974742</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.810354552352749</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>23.19010267196153</v>
+        <v>26.81930867541271</v>
       </c>
       <c r="L25">
-        <v>17.25360649178618</v>
+        <v>6.292624149682105</v>
       </c>
       <c r="M25">
+        <v>17.34673316359287</v>
+      </c>
+      <c r="N25">
+        <v>22.27451950627998</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.44522674908065</v>
+        <v>21.09407742551276</v>
       </c>
       <c r="C2">
-        <v>18.27991282810505</v>
+        <v>12.0677284625407</v>
       </c>
       <c r="D2">
-        <v>7.016414817585407</v>
+        <v>7.207299527390336</v>
       </c>
       <c r="E2">
-        <v>5.937068948566241</v>
+        <v>6.863805245797786</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.117472792946993</v>
+        <v>23.87387342637572</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.442157256143048</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.62443530345253</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.68260757985005</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.189896852515838</v>
+        <v>7.243806096429152</v>
       </c>
       <c r="M2">
-        <v>16.36357655370154</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>21.74321372912395</v>
+        <v>11.61377780054274</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.2956437619055</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.69306728599776</v>
+        <v>19.68716570836029</v>
       </c>
       <c r="C3">
-        <v>16.90180432522989</v>
+        <v>11.54096212439665</v>
       </c>
       <c r="D3">
-        <v>6.494050277400977</v>
+        <v>6.709723456408144</v>
       </c>
       <c r="E3">
-        <v>5.741438764608533</v>
+        <v>6.891302613758253</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.134822339802061</v>
+        <v>22.86436752802511</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.395326518204779</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.68988947307241</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.2074873540488</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.129189128942842</v>
+        <v>6.981905762693011</v>
       </c>
       <c r="M3">
-        <v>15.70862329279209</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>21.39541963237068</v>
+        <v>11.72080922557155</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.01192860344353</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.60053662968474</v>
+        <v>18.77147274401749</v>
       </c>
       <c r="C4">
-        <v>16.02326526431794</v>
+        <v>11.20442915337803</v>
       </c>
       <c r="D4">
-        <v>6.199432871444839</v>
+        <v>6.386974079067532</v>
       </c>
       <c r="E4">
-        <v>5.620816298003793</v>
+        <v>6.912896359114738</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.145596010920624</v>
+        <v>22.25065471649163</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.373244350553581</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.74350378999145</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.28807192185268</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.095976347330112</v>
+        <v>6.819637867388955</v>
       </c>
       <c r="M4">
-        <v>15.31196472507366</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>21.18718291876092</v>
+        <v>11.79010534102842</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.84947021980746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.15124124520401</v>
+        <v>18.38521795816622</v>
       </c>
       <c r="C5">
-        <v>15.65680247184001</v>
+        <v>11.0641124099487</v>
       </c>
       <c r="D5">
-        <v>6.083727973110445</v>
+        <v>6.251084806321264</v>
       </c>
       <c r="E5">
-        <v>5.571478380421649</v>
+        <v>6.922841720692424</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.150024719628179</v>
+        <v>22.00249585949988</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.365875087040749</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.7685652751091</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.91005173719939</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.083418480526523</v>
+        <v>6.753242600830377</v>
       </c>
       <c r="M5">
-        <v>15.15173574951706</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>21.10356749628208</v>
+        <v>11.81922914230785</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.78622535224599</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.07639590630256</v>
+        <v>18.32028739604314</v>
       </c>
       <c r="C6">
-        <v>15.59543316068942</v>
+        <v>11.04062482450361</v>
       </c>
       <c r="D6">
-        <v>6.064425646406488</v>
+        <v>6.228255850653712</v>
       </c>
       <c r="E6">
-        <v>5.56327336194357</v>
+        <v>6.92456122057684</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.150762633969568</v>
+        <v>21.96141810071541</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.364748375609013</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.77291609399299</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.84708440456679</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.081390991487433</v>
+        <v>6.742204432082893</v>
       </c>
       <c r="M6">
-        <v>15.12521682003277</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>21.08975580541346</v>
+        <v>11.82411817950889</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.77590218285621</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.59449353374896</v>
+        <v>18.76631671460971</v>
       </c>
       <c r="C7">
-        <v>16.01835760716165</v>
+        <v>11.20254948787982</v>
       </c>
       <c r="D7">
-        <v>6.197878467020464</v>
+        <v>6.385159150116361</v>
       </c>
       <c r="E7">
-        <v>5.620151717633777</v>
+        <v>6.913025897359951</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.145655572946817</v>
+        <v>22.24729958845454</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.373138434434871</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.74382898026458</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.28298716791666</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.095803090138097</v>
+        <v>6.818743395103372</v>
       </c>
       <c r="M7">
-        <v>15.30979803129288</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>21.18605033340053</v>
+        <v>11.79049454959471</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.84860530126273</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.84457279468356</v>
+        <v>20.61969396257433</v>
       </c>
       <c r="C8">
-        <v>17.81125609861774</v>
+        <v>11.88888158791769</v>
       </c>
       <c r="D8">
-        <v>6.839014299972063</v>
+        <v>7.039292952864137</v>
       </c>
       <c r="E8">
-        <v>5.869682526633566</v>
+        <v>6.872285265283924</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.123434890329265</v>
+        <v>23.5247505453336</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.424596933904882</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.64411873818742</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.17684160330533</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.168093656236486</v>
+        <v>7.153861620045597</v>
       </c>
       <c r="M8">
-        <v>16.13661777176516</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>21.6221320793754</v>
+        <v>11.64993023254241</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.19538778666619</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.12753551962982</v>
+        <v>23.84589047369445</v>
       </c>
       <c r="C9">
-        <v>21.08748865898233</v>
+        <v>13.12667811803942</v>
       </c>
       <c r="D9">
-        <v>8.074464539158098</v>
+        <v>8.186776638269105</v>
       </c>
       <c r="E9">
-        <v>6.358325046480149</v>
+        <v>6.831526373949511</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.080402779251337</v>
+        <v>26.06291292753921</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.580473486350987</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.56250955792601</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.78517077571102</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.344337095180738</v>
+        <v>7.795625675978456</v>
       </c>
       <c r="M9">
-        <v>17.80256271088692</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>22.52449300639627</v>
+        <v>11.4034133240919</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.96789797650563</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.25662916502522</v>
+        <v>25.97170007906966</v>
       </c>
       <c r="C10">
-        <v>23.37834679594089</v>
+        <v>13.96574521714117</v>
       </c>
       <c r="D10">
-        <v>8.932308019497732</v>
+        <v>8.949482430343583</v>
       </c>
       <c r="E10">
-        <v>6.723050037184157</v>
+        <v>6.82788222546782</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.048418079300439</v>
+        <v>27.93000324622905</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.731078325460826</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.58221907168708</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.70511367542404</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.498483663871317</v>
+        <v>8.253309847061624</v>
       </c>
       <c r="M10">
-        <v>19.0599291097722</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>23.2251607651878</v>
+        <v>11.24119409268763</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.59039388087037</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.75908305070837</v>
+        <v>26.88669178035774</v>
       </c>
       <c r="C11">
-        <v>24.40406256418924</v>
+        <v>14.33153471162667</v>
       </c>
       <c r="D11">
-        <v>9.314876650525537</v>
+        <v>9.279484732288724</v>
       </c>
       <c r="E11">
-        <v>6.89214915643811</v>
+        <v>6.832467747322863</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.0335864738557</v>
+        <v>28.77701223891665</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.807919801452051</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.61067400959177</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.01895345489049</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.57497524158597</v>
+        <v>8.457778785830566</v>
       </c>
       <c r="M11">
-        <v>19.64227062470107</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>23.55480119883684</v>
+        <v>11.17178894221371</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.88511394218927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.32654645123787</v>
+        <v>27.22577315326072</v>
       </c>
       <c r="C12">
-        <v>24.79106020222497</v>
+        <v>14.46772383456539</v>
       </c>
       <c r="D12">
-        <v>9.458973310023387</v>
+        <v>9.402049673927397</v>
       </c>
       <c r="E12">
-        <v>6.956859190331135</v>
+        <v>6.835145969170128</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.027908163894274</v>
+        <v>29.09723679878514</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.838251961297319</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.62442895632104</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.51458195312321</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.604963138545607</v>
+        <v>8.534619464637174</v>
       </c>
       <c r="M12">
-        <v>19.89958395029384</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>23.6814944769283</v>
+        <v>11.14616573752216</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.99834096360764</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.20437708005676</v>
+        <v>27.15307402253644</v>
       </c>
       <c r="C13">
-        <v>24.70775904371553</v>
+        <v>14.43849710823802</v>
       </c>
       <c r="D13">
-        <v>9.427967898476664</v>
+        <v>9.375759221314549</v>
       </c>
       <c r="E13">
-        <v>6.942888547876634</v>
+        <v>6.834526578159286</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.029134237384529</v>
+        <v>29.02829623135717</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.831663958167264</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.62133127728829</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.40790348574684</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.598457291695765</v>
+        <v>8.518097274048717</v>
       </c>
       <c r="M13">
-        <v>19.8341992506738</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>23.65412024897288</v>
+        <v>11.15165436916777</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.97388388374707</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.8057905441341</v>
+        <v>26.91473617935141</v>
       </c>
       <c r="C14">
-        <v>24.4359233430715</v>
+        <v>14.34278590947644</v>
       </c>
       <c r="D14">
-        <v>9.326744931521484</v>
+        <v>9.289616092653464</v>
       </c>
       <c r="E14">
-        <v>6.897457882317076</v>
+        <v>6.832668959002834</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.033120696848854</v>
+        <v>28.80336859885255</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.81039031799293</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.61174491777924</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.05975987755514</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.577421182612238</v>
+        <v>8.464112540683582</v>
       </c>
       <c r="M14">
-        <v>19.66052809294825</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>23.56518495635672</v>
+        <v>11.16966752836123</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.89439687578642</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.56149146427462</v>
+        <v>26.76778524894805</v>
       </c>
       <c r="C15">
-        <v>24.26926305019643</v>
+        <v>14.28385593041387</v>
       </c>
       <c r="D15">
-        <v>9.264653172319123</v>
+        <v>9.236539587537095</v>
       </c>
       <c r="E15">
-        <v>6.8697257859132</v>
+        <v>6.831655069896243</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.035553737574975</v>
+        <v>28.6655216511614</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.797521326568978</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.60626623743918</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.8463020318691</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.564672640376975</v>
+        <v>8.430967513323258</v>
       </c>
       <c r="M15">
-        <v>19.56513396842568</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>23.51096263880724</v>
+        <v>11.18078780730506</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.8459190782292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.15816258978543</v>
+        <v>25.91086250177818</v>
       </c>
       <c r="C16">
-        <v>23.31105929706676</v>
+        <v>13.94151626081903</v>
       </c>
       <c r="D16">
-        <v>8.907178483408073</v>
+        <v>8.927578059009209</v>
       </c>
       <c r="E16">
-        <v>6.712080424233408</v>
+        <v>6.827711940402979</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.049379970380326</v>
+        <v>27.87458544603627</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.726227321786425</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.58076686416565</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.61892105619591</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.49362149292033</v>
+        <v>8.239867674486794</v>
       </c>
       <c r="M16">
-        <v>19.02211166000504</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>23.20386114216537</v>
+        <v>11.24582052219841</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.57136231376994</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.31981533218204</v>
+        <v>25.37189204417506</v>
       </c>
       <c r="C17">
-        <v>22.71963470306952</v>
+        <v>13.72739594663634</v>
       </c>
       <c r="D17">
-        <v>8.686128032772416</v>
+        <v>8.73372419533197</v>
       </c>
       <c r="E17">
-        <v>6.61632335452575</v>
+        <v>6.826923275686333</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.057775999130883</v>
+        <v>27.38862764968178</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.684650830404053</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.57024248044134</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.86134804221299</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.451733933915432</v>
+        <v>8.121639057283264</v>
       </c>
       <c r="M17">
-        <v>18.69188338509887</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>23.01844598448398</v>
+        <v>11.28685911279698</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.40586041792456</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85822130430126</v>
+        <v>25.05698646923242</v>
       </c>
       <c r="C18">
-        <v>22.37785136089893</v>
+        <v>13.60274409108357</v>
       </c>
       <c r="D18">
-        <v>8.558240582187638</v>
+        <v>8.620626174811152</v>
       </c>
       <c r="E18">
-        <v>6.561530127267318</v>
+        <v>6.827054657814646</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.062580190944857</v>
+        <v>27.10890535169143</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.661519255861895</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.5660130859845</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.42358319201282</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.428233325015549</v>
+        <v>8.053288053356598</v>
       </c>
       <c r="M18">
-        <v>18.5028878404977</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>22.91280469974386</v>
+        <v>11.31087472481908</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.31175684262058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.70180956775735</v>
+        <v>24.94952023055739</v>
       </c>
       <c r="C19">
-        <v>22.26182731518166</v>
+        <v>13.56028365946626</v>
       </c>
       <c r="D19">
-        <v>8.51480320470186</v>
+        <v>8.582057450207813</v>
       </c>
       <c r="E19">
-        <v>6.543021069672926</v>
+        <v>6.827198277311838</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.064203094292227</v>
+        <v>27.01416606673254</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.653820495053084</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.56488890010896</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.27498616733094</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.420375226634797</v>
+        <v>8.030087314852818</v>
       </c>
       <c r="M19">
-        <v>18.4390490767459</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>22.8772010322025</v>
+        <v>11.31907583596669</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.28008313427848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.40519303473298</v>
+        <v>25.42977335631926</v>
       </c>
       <c r="C20">
-        <v>22.78275351131425</v>
+        <v>13.7503445244275</v>
       </c>
       <c r="D20">
-        <v>8.709734182138195</v>
+        <v>8.754525424398853</v>
       </c>
       <c r="E20">
-        <v>6.626486097228653</v>
+        <v>6.826946366603129</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.056884953099182</v>
+        <v>27.44038212286556</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.688995503475144</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.57117275278971</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.94219593508685</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.456130968900534</v>
+        <v>8.134261212264347</v>
       </c>
       <c r="M20">
-        <v>18.72693666307637</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>23.03807785205676</v>
+        <v>11.28244772384915</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.42336597106161</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.92289448620898</v>
+        <v>26.98494214210078</v>
       </c>
       <c r="C21">
-        <v>24.51579797621604</v>
+        <v>14.37096204082459</v>
       </c>
       <c r="D21">
-        <v>9.356494584629173</v>
+        <v>9.314983232107988</v>
       </c>
       <c r="E21">
-        <v>6.910781592136948</v>
+        <v>6.833188675734332</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.031951652422777</v>
+        <v>28.86945062143307</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.816605136869006</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.61447840174206</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.16205948895518</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.583571288449154</v>
+        <v>8.479985460170521</v>
       </c>
       <c r="M21">
-        <v>19.70634215290361</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>23.59125401263297</v>
+        <v>11.16435850519055</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.91770037525181</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.57334682168199</v>
+        <v>27.95820466834151</v>
       </c>
       <c r="C22">
-        <v>25.64078446922973</v>
+        <v>14.76299420062913</v>
       </c>
       <c r="D22">
-        <v>9.774889845781034</v>
+        <v>9.667306111711595</v>
       </c>
       <c r="E22">
-        <v>7.100672701436593</v>
+        <v>6.842778298840689</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.015281650801111</v>
+        <v>29.80034986732921</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.907213025788039</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.66022840462894</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.60254514214891</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.672887420160343</v>
+        <v>8.702496149650672</v>
       </c>
       <c r="M22">
-        <v>20.56576000446598</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>23.96386049631278</v>
+        <v>11.09103663630518</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.2502210570349</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.6927165606962</v>
+        <v>27.44267589697796</v>
       </c>
       <c r="C23">
-        <v>25.04068635493956</v>
+        <v>14.55501211562195</v>
       </c>
       <c r="D23">
-        <v>9.551848892267214</v>
+        <v>9.480529765597035</v>
       </c>
       <c r="E23">
-        <v>6.998861623582564</v>
+        <v>6.837141415115293</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.024221474129933</v>
+        <v>29.3038417409554</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.858183072928739</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.63415678225022</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.834241368481</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.624624463165977</v>
+        <v>8.584067082504848</v>
       </c>
       <c r="M23">
-        <v>20.09543876833415</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>23.76386002927148</v>
+        <v>11.12980709814573</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.07189588536102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.36659627963923</v>
+        <v>25.40362093281716</v>
       </c>
       <c r="C24">
-        <v>22.75422306511735</v>
+        <v>13.73997430099761</v>
       </c>
       <c r="D24">
-        <v>8.699064365773117</v>
+        <v>8.745126327441755</v>
       </c>
       <c r="E24">
-        <v>6.62189073082049</v>
+        <v>6.826934109023163</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.057287864469089</v>
+        <v>27.41698496604974</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.687028877093748</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.57074651746181</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.90565161454442</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.454141267054737</v>
+        <v>8.128555915057373</v>
       </c>
       <c r="M24">
-        <v>18.71108643509228</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>23.02919932727356</v>
+        <v>11.28444080049313</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.4154484506062</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.98163330756641</v>
+        <v>23.01637877079384</v>
       </c>
       <c r="C25">
-        <v>20.22410558910338</v>
+        <v>12.80391025454947</v>
       </c>
       <c r="D25">
-        <v>7.749912037838882</v>
+        <v>7.890618740426499</v>
       </c>
       <c r="E25">
-        <v>6.225665789277548</v>
+        <v>6.838112572735519</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.092050771660031</v>
+        <v>25.37473815017525</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.532143451396532</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.57133921665983</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.81930867541271</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.292624149682105</v>
+        <v>7.624154528834494</v>
       </c>
       <c r="M25">
-        <v>17.34673316359287</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>22.27451950627998</v>
+        <v>11.46687430415988</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.74913881869715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09407742551276</v>
+        <v>14.86880019082857</v>
       </c>
       <c r="C2">
-        <v>12.0677284625407</v>
+        <v>10.00077242484913</v>
       </c>
       <c r="D2">
-        <v>7.207299527390336</v>
+        <v>5.973662031265871</v>
       </c>
       <c r="E2">
-        <v>6.863805245797786</v>
+        <v>11.49678251927395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.87387342637572</v>
+        <v>26.56228231048298</v>
       </c>
       <c r="H2">
-        <v>8.442157256143048</v>
+        <v>13.56233498213508</v>
       </c>
       <c r="I2">
-        <v>12.62443530345253</v>
+        <v>20.58843904220758</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.243806096429152</v>
+        <v>9.726813759130513</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61377780054274</v>
+        <v>16.81341884539283</v>
       </c>
       <c r="O2">
-        <v>14.2956437619055</v>
+        <v>20.38161832807902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68716570836029</v>
+        <v>14.32207975470207</v>
       </c>
       <c r="C3">
-        <v>11.54096212439665</v>
+        <v>9.789685452692897</v>
       </c>
       <c r="D3">
-        <v>6.709723456408144</v>
+        <v>5.852700298432294</v>
       </c>
       <c r="E3">
-        <v>6.891302613758253</v>
+        <v>11.53498044091433</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.86436752802511</v>
+        <v>26.46717264402335</v>
       </c>
       <c r="H3">
-        <v>8.395326518204779</v>
+        <v>13.59807548138736</v>
       </c>
       <c r="I3">
-        <v>12.68988947307241</v>
+        <v>20.67889318057254</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.981905762693011</v>
+        <v>9.699109856417412</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.72080922557155</v>
+        <v>16.85506813843295</v>
       </c>
       <c r="O3">
-        <v>14.01192860344353</v>
+        <v>20.41267717606436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77147274401749</v>
+        <v>13.97701550734586</v>
       </c>
       <c r="C4">
-        <v>11.20442915337803</v>
+        <v>9.656692340611436</v>
       </c>
       <c r="D4">
-        <v>6.386974079067532</v>
+        <v>5.778920700046474</v>
       </c>
       <c r="E4">
-        <v>6.912896359114738</v>
+        <v>11.56038330156764</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.25065471649163</v>
+        <v>26.41897708514221</v>
       </c>
       <c r="H4">
-        <v>8.373244350553581</v>
+        <v>13.62265925009512</v>
       </c>
       <c r="I4">
-        <v>12.74350378999145</v>
+        <v>20.73913748935086</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.819637867388955</v>
+        <v>9.683786179357698</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.79010534102842</v>
+        <v>16.88238532226372</v>
       </c>
       <c r="O4">
-        <v>13.84947021980746</v>
+        <v>20.43716364719482</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.38521795816622</v>
+        <v>13.83425110134348</v>
       </c>
       <c r="C5">
-        <v>11.0641124099487</v>
+        <v>9.60169351449778</v>
       </c>
       <c r="D5">
-        <v>6.251084806321264</v>
+        <v>5.749025591324566</v>
       </c>
       <c r="E5">
-        <v>6.922841720692424</v>
+        <v>11.57122517646601</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.00249585949988</v>
+        <v>26.40191724767864</v>
       </c>
       <c r="H5">
-        <v>8.365875087040749</v>
+        <v>13.63333993923401</v>
       </c>
       <c r="I5">
-        <v>12.7685652751091</v>
+        <v>20.76486807327877</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.753242600830377</v>
+        <v>9.67797033434835</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.81922914230785</v>
+        <v>16.89395664976177</v>
       </c>
       <c r="O5">
-        <v>13.78622535224599</v>
+        <v>20.4485007522205</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32028739604314</v>
+        <v>13.81042200149882</v>
       </c>
       <c r="C6">
-        <v>11.04062482450361</v>
+        <v>9.592513953441427</v>
       </c>
       <c r="D6">
-        <v>6.228255850653712</v>
+        <v>5.744073226861144</v>
       </c>
       <c r="E6">
-        <v>6.92456122057684</v>
+        <v>11.57305505252047</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.96141810071541</v>
+        <v>26.39924066566707</v>
       </c>
       <c r="H6">
-        <v>8.364748375609013</v>
+        <v>13.63515344910354</v>
       </c>
       <c r="I6">
-        <v>12.77291609399299</v>
+        <v>20.76921184286478</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.742204432082893</v>
+        <v>9.677030634246822</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.82411817950889</v>
+        <v>16.8959046172347</v>
       </c>
       <c r="O6">
-        <v>13.77590218285621</v>
+        <v>20.45046522338398</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76631671460971</v>
+        <v>13.9750985406363</v>
       </c>
       <c r="C7">
-        <v>11.20254948787982</v>
+        <v>9.655953793354104</v>
       </c>
       <c r="D7">
-        <v>6.385159150116361</v>
+        <v>5.778516770433387</v>
       </c>
       <c r="E7">
-        <v>6.913025897359951</v>
+        <v>11.56052753505545</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.24729958845454</v>
+        <v>26.41873654646438</v>
       </c>
       <c r="H7">
-        <v>8.373138434434871</v>
+        <v>13.62280061210695</v>
       </c>
       <c r="I7">
-        <v>12.74382898026458</v>
+        <v>20.73947972449339</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.818743395103372</v>
+        <v>9.683706003407099</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.79049454959471</v>
+        <v>16.88253959734452</v>
       </c>
       <c r="O7">
-        <v>13.84860530126273</v>
+        <v>20.43731104692419</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61969396257433</v>
+        <v>14.68235608290466</v>
       </c>
       <c r="C8">
-        <v>11.88888158791769</v>
+        <v>9.928720229764041</v>
       </c>
       <c r="D8">
-        <v>7.039292952864137</v>
+        <v>5.931880501638131</v>
       </c>
       <c r="E8">
-        <v>6.872285265283924</v>
+        <v>11.50954853119672</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.5247505453336</v>
+        <v>26.52738121710543</v>
       </c>
       <c r="H8">
-        <v>8.424596933904882</v>
+        <v>13.57411001869289</v>
       </c>
       <c r="I8">
-        <v>12.64411873818742</v>
+        <v>20.6186495271386</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.153861620045597</v>
+        <v>9.716914246070504</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.64993023254241</v>
+        <v>16.82741791341908</v>
       </c>
       <c r="O8">
-        <v>14.19538778666619</v>
+        <v>20.39120147360258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84589047369445</v>
+        <v>15.98675503912645</v>
       </c>
       <c r="C9">
-        <v>13.12667811803942</v>
+        <v>10.43477703056634</v>
       </c>
       <c r="D9">
-        <v>8.186776638269105</v>
+        <v>6.23449588386173</v>
       </c>
       <c r="E9">
-        <v>6.831526373949511</v>
+        <v>11.42505058466735</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.06291292753921</v>
+        <v>26.82052979456945</v>
       </c>
       <c r="H9">
-        <v>8.580473486350987</v>
+        <v>13.49960870327734</v>
       </c>
       <c r="I9">
-        <v>12.56250955792601</v>
+        <v>20.41915048715371</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.795625675978456</v>
+        <v>9.795201023790058</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.4034133240919</v>
+        <v>16.73313312234053</v>
       </c>
       <c r="O9">
-        <v>14.96789797650563</v>
+        <v>20.34387943478038</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.97170007906966</v>
+        <v>16.88530637234834</v>
       </c>
       <c r="C10">
-        <v>13.96574521714117</v>
+        <v>10.78653768304301</v>
       </c>
       <c r="D10">
-        <v>8.949482430343583</v>
+        <v>6.455337781299679</v>
       </c>
       <c r="E10">
-        <v>6.82788222546782</v>
+        <v>11.37240960157923</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.93000324622905</v>
+        <v>27.08330968248906</v>
       </c>
       <c r="H10">
-        <v>8.731078325460826</v>
+        <v>13.45771699665983</v>
       </c>
       <c r="I10">
-        <v>12.58221907168708</v>
+        <v>20.29556599785491</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.253309847061624</v>
+        <v>9.860429767444128</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.24119409268763</v>
+        <v>16.67223689404519</v>
       </c>
       <c r="O10">
-        <v>15.59039388087037</v>
+        <v>20.3355200446265</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.88669178035774</v>
+        <v>17.27947035319913</v>
       </c>
       <c r="C11">
-        <v>14.33153471162667</v>
+        <v>10.9417459148471</v>
       </c>
       <c r="D11">
-        <v>9.279484732288724</v>
+        <v>6.554958354641228</v>
       </c>
       <c r="E11">
-        <v>6.832467747322863</v>
+        <v>11.35051318889866</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.77701223891665</v>
+        <v>27.21276238921976</v>
       </c>
       <c r="H11">
-        <v>8.807919801452051</v>
+        <v>13.44145845188706</v>
       </c>
       <c r="I11">
-        <v>12.61067400959177</v>
+        <v>20.24436954623339</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.457778785830566</v>
+        <v>9.891703884235504</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.17178894221371</v>
+        <v>16.64634325482855</v>
       </c>
       <c r="O11">
-        <v>15.88511394218927</v>
+        <v>20.33746718416446</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.22577315326072</v>
+        <v>17.42651860154309</v>
       </c>
       <c r="C12">
-        <v>14.46772383456539</v>
+        <v>10.99979237725337</v>
       </c>
       <c r="D12">
-        <v>9.402049673927397</v>
+        <v>6.592520383998105</v>
       </c>
       <c r="E12">
-        <v>6.835145969170128</v>
+        <v>11.34251656394632</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.09723679878514</v>
+        <v>27.26317032184013</v>
       </c>
       <c r="H12">
-        <v>8.838251961297319</v>
+        <v>13.4357048229868</v>
       </c>
       <c r="I12">
-        <v>12.62442895632104</v>
+        <v>20.22570789438939</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.534619464637174</v>
+        <v>9.90376997626988</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.14616573752216</v>
+        <v>16.63679740188503</v>
       </c>
       <c r="O12">
-        <v>15.99834096360764</v>
+        <v>20.33903147987271</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.15307402253644</v>
+        <v>17.39494922762208</v>
       </c>
       <c r="C13">
-        <v>14.43849710823802</v>
+        <v>10.98732393303785</v>
       </c>
       <c r="D13">
-        <v>9.375759221314549</v>
+        <v>6.584438568592526</v>
       </c>
       <c r="E13">
-        <v>6.834526578159286</v>
+        <v>11.34422565293899</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.02829623135717</v>
+        <v>27.25225303144552</v>
       </c>
       <c r="H13">
-        <v>8.831663958167264</v>
+        <v>13.43692602967965</v>
       </c>
       <c r="I13">
-        <v>12.62133127728829</v>
+        <v>20.2296947069495</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.518097274048717</v>
+        <v>9.901161512481128</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.15165436916777</v>
+        <v>16.63884173881201</v>
       </c>
       <c r="O13">
-        <v>15.97388388374707</v>
+        <v>20.33865780693937</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.91473617935141</v>
+        <v>17.29161305923935</v>
       </c>
       <c r="C14">
-        <v>14.34278590947644</v>
+        <v>10.94653620906688</v>
       </c>
       <c r="D14">
-        <v>9.289616092653464</v>
+        <v>6.55805208158486</v>
       </c>
       <c r="E14">
-        <v>6.832668959002834</v>
+        <v>11.34984938667872</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.80336859885255</v>
+        <v>27.21688191451524</v>
       </c>
       <c r="H14">
-        <v>8.81039031799293</v>
+        <v>13.44097701409884</v>
       </c>
       <c r="I14">
-        <v>12.61174491777924</v>
+        <v>20.24281968663351</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.464112540683582</v>
+        <v>9.892692135545769</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.16966752836123</v>
+        <v>16.64555271386404</v>
       </c>
       <c r="O14">
-        <v>15.89439687578642</v>
+        <v>20.33757930797521</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.76778524894805</v>
+        <v>17.22802531087024</v>
       </c>
       <c r="C15">
-        <v>14.28385593041387</v>
+        <v>10.92145678522052</v>
       </c>
       <c r="D15">
-        <v>9.236539587537095</v>
+        <v>6.541867303835175</v>
       </c>
       <c r="E15">
-        <v>6.831655069896243</v>
+        <v>11.35333252025633</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.6655216511614</v>
+        <v>27.19539551518435</v>
       </c>
       <c r="H15">
-        <v>8.797521326568978</v>
+        <v>13.44351087902692</v>
       </c>
       <c r="I15">
-        <v>12.60626623743918</v>
+        <v>20.25095366623423</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.430967513323258</v>
+        <v>9.887533260086538</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.18078780730506</v>
+        <v>16.64969715969677</v>
       </c>
       <c r="O15">
-        <v>15.8459190782292</v>
+        <v>20.33702638248303</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91086250177818</v>
+        <v>16.85924304357162</v>
       </c>
       <c r="C16">
-        <v>13.94151626081903</v>
+        <v>10.77629454734438</v>
       </c>
       <c r="D16">
-        <v>8.927578059009209</v>
+        <v>6.448806841324791</v>
       </c>
       <c r="E16">
-        <v>6.827711940402979</v>
+        <v>11.3738818611647</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.87458544603627</v>
+        <v>27.07504590454463</v>
       </c>
       <c r="H16">
-        <v>8.726227321786425</v>
+        <v>13.45883590411734</v>
       </c>
       <c r="I16">
-        <v>12.58076686416565</v>
+        <v>20.29901313957142</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.239867674486794</v>
+        <v>9.858417560835607</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.24582052219841</v>
+        <v>16.67396544706346</v>
       </c>
       <c r="O16">
-        <v>15.57136231376994</v>
+        <v>20.33550852353794</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.37189204417506</v>
+        <v>16.62918320996729</v>
       </c>
       <c r="C17">
-        <v>13.72739594663634</v>
+        <v>10.68598396158716</v>
       </c>
       <c r="D17">
-        <v>8.73372419533197</v>
+        <v>6.391471740306885</v>
       </c>
       <c r="E17">
-        <v>6.826923275686333</v>
+        <v>11.38701351090051</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.38862764968178</v>
+        <v>27.00372794312233</v>
       </c>
       <c r="H17">
-        <v>8.684650830404053</v>
+        <v>13.46895456132168</v>
       </c>
       <c r="I17">
-        <v>12.57024248044134</v>
+        <v>20.32978470462549</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.121639057283264</v>
+        <v>9.840961264068016</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.28685911279698</v>
+        <v>16.68931603435835</v>
       </c>
       <c r="O17">
-        <v>15.40586041792456</v>
+        <v>20.33605035756915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.05698646923242</v>
+        <v>16.49549129699225</v>
       </c>
       <c r="C18">
-        <v>13.60274409108357</v>
+        <v>10.63358898531044</v>
       </c>
       <c r="D18">
-        <v>8.620626174811152</v>
+        <v>6.358417214557016</v>
       </c>
       <c r="E18">
-        <v>6.827054657814646</v>
+        <v>11.3947594518248</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.10890535169143</v>
+        <v>26.96364330286156</v>
       </c>
       <c r="H18">
-        <v>8.661519255861895</v>
+        <v>13.47503788624505</v>
       </c>
       <c r="I18">
-        <v>12.5660130859845</v>
+        <v>20.34795627755056</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.053288053356598</v>
+        <v>9.831072019143791</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.31087472481908</v>
+        <v>16.69831552835907</v>
       </c>
       <c r="O18">
-        <v>15.31175684262058</v>
+        <v>20.33690324636186</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.94952023055739</v>
+        <v>16.44999438012236</v>
       </c>
       <c r="C19">
-        <v>13.56028365946626</v>
+        <v>10.61577267553485</v>
       </c>
       <c r="D19">
-        <v>8.582057450207813</v>
+        <v>6.347213604729031</v>
       </c>
       <c r="E19">
-        <v>6.827198277311838</v>
+        <v>11.3974152282132</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.01416606673254</v>
+        <v>26.95023313303638</v>
       </c>
       <c r="H19">
-        <v>8.653820495053084</v>
+        <v>13.4771428002051</v>
       </c>
       <c r="I19">
-        <v>12.56488890010896</v>
+        <v>20.35418993273205</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.030087314852818</v>
+        <v>9.827749859593043</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.31907583596669</v>
+        <v>16.70139185822296</v>
       </c>
       <c r="O19">
-        <v>15.28008313427848</v>
+        <v>20.33728496311219</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.42977335631926</v>
+        <v>16.65381589173056</v>
       </c>
       <c r="C20">
-        <v>13.7503445244275</v>
+        <v>10.69564459400092</v>
       </c>
       <c r="D20">
-        <v>8.754525424398853</v>
+        <v>6.397583423005118</v>
       </c>
       <c r="E20">
-        <v>6.826946366603129</v>
+        <v>11.38559565155622</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.44038212286556</v>
+        <v>27.01122330232081</v>
       </c>
       <c r="H20">
-        <v>8.688995503475144</v>
+        <v>13.46785015244247</v>
       </c>
       <c r="I20">
-        <v>12.57117275278971</v>
+        <v>20.32646008618404</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.134261212264347</v>
+        <v>9.842803922298275</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.28244772384915</v>
+        <v>16.68766432262306</v>
       </c>
       <c r="O20">
-        <v>15.42336597106161</v>
+        <v>20.33593665892238</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.98494214210078</v>
+        <v>17.32202630034191</v>
       </c>
       <c r="C21">
-        <v>14.37096204082459</v>
+        <v>10.958536569987</v>
       </c>
       <c r="D21">
-        <v>9.314983232107988</v>
+        <v>6.565807148214523</v>
       </c>
       <c r="E21">
-        <v>6.833188675734332</v>
+        <v>11.34818954965485</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.86945062143307</v>
+        <v>27.22723394886103</v>
       </c>
       <c r="H21">
-        <v>8.816605136869006</v>
+        <v>13.43977619544839</v>
       </c>
       <c r="I21">
-        <v>12.61447840174206</v>
+        <v>20.23894485224249</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.479985460170521</v>
+        <v>9.895173794858342</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.16435850519055</v>
+        <v>16.6435744990547</v>
       </c>
       <c r="O21">
-        <v>15.91770037525181</v>
+        <v>20.33787364827594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.95820466834151</v>
+        <v>17.74579785370551</v>
       </c>
       <c r="C22">
-        <v>14.76299420062913</v>
+        <v>11.1260963381439</v>
       </c>
       <c r="D22">
-        <v>9.667306111711595</v>
+        <v>6.67478874401735</v>
       </c>
       <c r="E22">
-        <v>6.842778298840689</v>
+        <v>11.32546251124673</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.80034986732921</v>
+        <v>27.37647380874775</v>
       </c>
       <c r="H22">
-        <v>8.907213025788039</v>
+        <v>13.42377826820027</v>
       </c>
       <c r="I22">
-        <v>12.66022840462894</v>
+        <v>20.18597779607476</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.702496149650672</v>
+        <v>9.930698418922033</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.09103663630518</v>
+        <v>16.61627161660923</v>
       </c>
       <c r="O22">
-        <v>16.2502210570349</v>
+        <v>20.34395928886259</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.44267589697796</v>
+        <v>17.52084136758495</v>
       </c>
       <c r="C23">
-        <v>14.55501211562195</v>
+        <v>11.03706706804784</v>
       </c>
       <c r="D23">
-        <v>9.480529765597035</v>
+        <v>6.616724233765894</v>
       </c>
       <c r="E23">
-        <v>6.837141415115293</v>
+        <v>11.33743489770324</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.3038417409554</v>
+        <v>27.29609733063331</v>
       </c>
       <c r="H23">
-        <v>8.858183072928739</v>
+        <v>13.43210141180827</v>
       </c>
       <c r="I23">
-        <v>12.63415678225022</v>
+        <v>20.21385932889708</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.584067082504848</v>
+        <v>9.911621892426099</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.12980709814573</v>
+        <v>16.63070546897704</v>
       </c>
       <c r="O23">
-        <v>16.07189588536102</v>
+        <v>20.3402703995722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.40362093281716</v>
+        <v>16.64268389360313</v>
       </c>
       <c r="C24">
-        <v>13.73997430099761</v>
+        <v>10.6912784964476</v>
       </c>
       <c r="D24">
-        <v>8.745126327441755</v>
+        <v>6.394820614095393</v>
       </c>
       <c r="E24">
-        <v>6.826934109023163</v>
+        <v>11.38623605408344</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.41698496604974</v>
+        <v>27.00783179112942</v>
       </c>
       <c r="H24">
-        <v>8.687028877093748</v>
+        <v>13.46834862724744</v>
       </c>
       <c r="I24">
-        <v>12.57074651746181</v>
+        <v>20.32796164938616</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.128555915057373</v>
+        <v>9.841970399306877</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.28444080049313</v>
+        <v>16.68841051871152</v>
       </c>
       <c r="O24">
-        <v>15.4154484506062</v>
+        <v>20.33598637571557</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.01637877079384</v>
+        <v>15.64376959321391</v>
       </c>
       <c r="C25">
-        <v>12.80391025454947</v>
+        <v>10.30122706199249</v>
       </c>
       <c r="D25">
-        <v>7.890618740426499</v>
+        <v>6.152707932490153</v>
       </c>
       <c r="E25">
-        <v>6.838112572735519</v>
+        <v>11.44625235129153</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.37473815017525</v>
+        <v>26.73278178764267</v>
       </c>
       <c r="H25">
-        <v>8.532143451396532</v>
+        <v>13.51751126039441</v>
       </c>
       <c r="I25">
-        <v>12.57133921665983</v>
+        <v>20.46909482431296</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.624154528834494</v>
+        <v>9.772643898166283</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.46687430415988</v>
+        <v>16.75716589143623</v>
       </c>
       <c r="O25">
-        <v>14.74913881869715</v>
+        <v>20.35205097952063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.86880019082857</v>
+        <v>21.09407742551282</v>
       </c>
       <c r="C2">
-        <v>10.00077242484913</v>
+        <v>12.0677284625406</v>
       </c>
       <c r="D2">
-        <v>5.973662031265871</v>
+        <v>7.20729952739033</v>
       </c>
       <c r="E2">
-        <v>11.49678251927395</v>
+        <v>6.863805245797791</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.56228231048298</v>
+        <v>23.87387342637562</v>
       </c>
       <c r="H2">
-        <v>13.56233498213508</v>
+        <v>8.442157256143034</v>
       </c>
       <c r="I2">
-        <v>20.58843904220758</v>
+        <v>12.62443530345244</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.726813759130513</v>
+        <v>7.243806096429164</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.81341884539283</v>
+        <v>11.61377780054274</v>
       </c>
       <c r="O2">
-        <v>20.38161832807902</v>
+        <v>14.29564376190541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.32207975470207</v>
+        <v>19.68716570836029</v>
       </c>
       <c r="C3">
-        <v>9.789685452692897</v>
+        <v>11.54096212439683</v>
       </c>
       <c r="D3">
-        <v>5.852700298432294</v>
+        <v>6.709723456408081</v>
       </c>
       <c r="E3">
-        <v>11.53498044091433</v>
+        <v>6.891302613758373</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.46717264402335</v>
+        <v>22.86436752802514</v>
       </c>
       <c r="H3">
-        <v>13.59807548138736</v>
+        <v>8.395326518204739</v>
       </c>
       <c r="I3">
-        <v>20.67889318057254</v>
+        <v>12.68988947307245</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.699109856417412</v>
+        <v>6.981905762693047</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.85506813843295</v>
+        <v>11.72080922557158</v>
       </c>
       <c r="O3">
-        <v>20.41267717606436</v>
+        <v>14.01192860344352</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.97701550734586</v>
+        <v>18.77147274401742</v>
       </c>
       <c r="C4">
-        <v>9.656692340611436</v>
+        <v>11.2044291533783</v>
       </c>
       <c r="D4">
-        <v>5.778920700046474</v>
+        <v>6.386974079067517</v>
       </c>
       <c r="E4">
-        <v>11.56038330156764</v>
+        <v>6.912896359114801</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.41897708514221</v>
+        <v>22.25065471649162</v>
       </c>
       <c r="H4">
-        <v>13.62265925009512</v>
+        <v>8.373244350553581</v>
       </c>
       <c r="I4">
-        <v>20.73913748935086</v>
+        <v>12.74350378999156</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.683786179357698</v>
+        <v>6.819637867388916</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.88238532226372</v>
+        <v>11.79010534102842</v>
       </c>
       <c r="O4">
-        <v>20.43716364719482</v>
+        <v>13.84947021980745</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.83425110134348</v>
+        <v>18.38521795816621</v>
       </c>
       <c r="C5">
-        <v>9.60169351449778</v>
+        <v>11.06411240994849</v>
       </c>
       <c r="D5">
-        <v>5.749025591324566</v>
+        <v>6.251084806321193</v>
       </c>
       <c r="E5">
-        <v>11.57122517646601</v>
+        <v>6.922841720692313</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.40191724767864</v>
+        <v>22.00249585949999</v>
       </c>
       <c r="H5">
-        <v>13.63333993923401</v>
+        <v>8.365875087040862</v>
       </c>
       <c r="I5">
-        <v>20.76486807327877</v>
+        <v>12.7685652751092</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.67797033434835</v>
+        <v>6.753242600830347</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.89395664976177</v>
+        <v>11.81922914230787</v>
       </c>
       <c r="O5">
-        <v>20.4485007522205</v>
+        <v>13.78622535224612</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81042200149882</v>
+        <v>18.32028739604312</v>
       </c>
       <c r="C6">
-        <v>9.592513953441427</v>
+        <v>11.04062482450367</v>
       </c>
       <c r="D6">
-        <v>5.744073226861144</v>
+        <v>6.22825585065373</v>
       </c>
       <c r="E6">
-        <v>11.57305505252047</v>
+        <v>6.924561220576901</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.39924066566707</v>
+        <v>21.96141810071562</v>
       </c>
       <c r="H6">
-        <v>13.63515344910354</v>
+        <v>8.364748375609073</v>
       </c>
       <c r="I6">
-        <v>20.76921184286478</v>
+        <v>12.77291609399318</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.677030634246822</v>
+        <v>6.74220443208291</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.8959046172347</v>
+        <v>11.82411817950891</v>
       </c>
       <c r="O6">
-        <v>20.45046522338398</v>
+        <v>13.77590218285633</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.9750985406363</v>
+        <v>18.76631671460973</v>
       </c>
       <c r="C7">
-        <v>9.655953793354104</v>
+        <v>11.2025494878798</v>
       </c>
       <c r="D7">
-        <v>5.778516770433387</v>
+        <v>6.38515915011635</v>
       </c>
       <c r="E7">
-        <v>11.56052753505545</v>
+        <v>6.913025897359891</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.41873654646438</v>
+        <v>22.24729958845477</v>
       </c>
       <c r="H7">
-        <v>13.62280061210695</v>
+        <v>8.373138434434919</v>
       </c>
       <c r="I7">
-        <v>20.73947972449339</v>
+        <v>12.74382898026476</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.683706003407099</v>
+        <v>6.818743395103363</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.88253959734452</v>
+        <v>11.79049454959483</v>
       </c>
       <c r="O7">
-        <v>20.43731104692419</v>
+        <v>13.84860530126291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.68235608290466</v>
+        <v>20.6196939625743</v>
       </c>
       <c r="C8">
-        <v>9.928720229764041</v>
+        <v>11.88888158791782</v>
       </c>
       <c r="D8">
-        <v>5.931880501638131</v>
+        <v>7.039292952864074</v>
       </c>
       <c r="E8">
-        <v>11.50954853119672</v>
+        <v>6.872285265284035</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.52738121710543</v>
+        <v>23.52475054533368</v>
       </c>
       <c r="H8">
-        <v>13.57411001869289</v>
+        <v>8.424596933904988</v>
       </c>
       <c r="I8">
-        <v>20.6186495271386</v>
+        <v>12.64411873818759</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.716914246070504</v>
+        <v>7.153861620045657</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.82741791341908</v>
+        <v>11.64993023254244</v>
       </c>
       <c r="O8">
-        <v>20.39120147360258</v>
+        <v>14.19538778666632</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.98675503912645</v>
+        <v>23.84589047369448</v>
       </c>
       <c r="C9">
-        <v>10.43477703056634</v>
+        <v>13.12667811803928</v>
       </c>
       <c r="D9">
-        <v>6.23449588386173</v>
+        <v>8.186776638269164</v>
       </c>
       <c r="E9">
-        <v>11.42505058466735</v>
+        <v>6.831526373949473</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.82052979456945</v>
+        <v>26.06291292753929</v>
       </c>
       <c r="H9">
-        <v>13.49960870327734</v>
+        <v>8.580473486350995</v>
       </c>
       <c r="I9">
-        <v>20.41915048715371</v>
+        <v>12.56250955792603</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.795201023790058</v>
+        <v>7.795625675978456</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.73313312234053</v>
+        <v>11.40341332409192</v>
       </c>
       <c r="O9">
-        <v>20.34387943478038</v>
+        <v>14.96789797650569</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.88530637234834</v>
+        <v>25.97170007906965</v>
       </c>
       <c r="C10">
-        <v>10.78653768304301</v>
+        <v>13.96574521714123</v>
       </c>
       <c r="D10">
-        <v>6.455337781299679</v>
+        <v>8.949482430343572</v>
       </c>
       <c r="E10">
-        <v>11.37240960157923</v>
+        <v>6.827882225467878</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.08330968248906</v>
+        <v>27.93000324622904</v>
       </c>
       <c r="H10">
-        <v>13.45771699665983</v>
+        <v>8.731078325460826</v>
       </c>
       <c r="I10">
-        <v>20.29556599785491</v>
+        <v>12.58221907168714</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.860429767444128</v>
+        <v>8.253309847061603</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.67223689404519</v>
+        <v>11.24119409268766</v>
       </c>
       <c r="O10">
-        <v>20.3355200446265</v>
+        <v>15.5903938808704</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27947035319913</v>
+        <v>26.88669178035776</v>
       </c>
       <c r="C11">
-        <v>10.9417459148471</v>
+        <v>14.33153471162674</v>
       </c>
       <c r="D11">
-        <v>6.554958354641228</v>
+        <v>9.279484732288701</v>
       </c>
       <c r="E11">
-        <v>11.35051318889866</v>
+        <v>6.832467747322863</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.21276238921976</v>
+        <v>28.77701223891664</v>
       </c>
       <c r="H11">
-        <v>13.44145845188706</v>
+        <v>8.807919801452028</v>
       </c>
       <c r="I11">
-        <v>20.24436954623339</v>
+        <v>12.61067400959168</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.891703884235504</v>
+        <v>8.457778785830557</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.64634325482855</v>
+        <v>11.17178894221367</v>
       </c>
       <c r="O11">
-        <v>20.33746718416446</v>
+        <v>15.88511394218922</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.42651860154309</v>
+        <v>27.22577315326077</v>
       </c>
       <c r="C12">
-        <v>10.99979237725337</v>
+        <v>14.46772383456539</v>
       </c>
       <c r="D12">
-        <v>6.592520383998105</v>
+        <v>9.402049673927374</v>
       </c>
       <c r="E12">
-        <v>11.34251656394632</v>
+        <v>6.835145969170132</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.26317032184013</v>
+        <v>29.09723679878516</v>
       </c>
       <c r="H12">
-        <v>13.4357048229868</v>
+        <v>8.838251961297289</v>
       </c>
       <c r="I12">
-        <v>20.22570789438939</v>
+        <v>12.62442895632099</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.90376997626988</v>
+        <v>8.534619464637169</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.63679740188503</v>
+        <v>11.14616573752215</v>
       </c>
       <c r="O12">
-        <v>20.33903147987271</v>
+        <v>15.99834096360762</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.39494922762208</v>
+        <v>27.15307402253647</v>
       </c>
       <c r="C13">
-        <v>10.98732393303785</v>
+        <v>14.43849710823783</v>
       </c>
       <c r="D13">
-        <v>6.584438568592526</v>
+        <v>9.375759221314544</v>
       </c>
       <c r="E13">
-        <v>11.34422565293899</v>
+        <v>6.834526578159241</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.25225303144552</v>
+        <v>29.0282962313572</v>
       </c>
       <c r="H13">
-        <v>13.43692602967965</v>
+        <v>8.831663958167303</v>
       </c>
       <c r="I13">
-        <v>20.2296947069495</v>
+        <v>12.6213312772883</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.901161512481128</v>
+        <v>8.518097274048714</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.63884173881201</v>
+        <v>11.15165436916783</v>
       </c>
       <c r="O13">
-        <v>20.33865780693937</v>
+        <v>15.97388388374711</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29161305923935</v>
+        <v>26.91473617935143</v>
       </c>
       <c r="C14">
-        <v>10.94653620906688</v>
+        <v>14.34278590947626</v>
       </c>
       <c r="D14">
-        <v>6.55805208158486</v>
+        <v>9.289616092653452</v>
       </c>
       <c r="E14">
-        <v>11.34984938667872</v>
+        <v>6.832668959002987</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.21688191451524</v>
+        <v>28.80336859885261</v>
       </c>
       <c r="H14">
-        <v>13.44097701409884</v>
+        <v>8.810390317992949</v>
       </c>
       <c r="I14">
-        <v>20.24281968663351</v>
+        <v>12.61174491777929</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.892692135545769</v>
+        <v>8.46411254068364</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.64555271386404</v>
+        <v>11.16966752836122</v>
       </c>
       <c r="O14">
-        <v>20.33757930797521</v>
+        <v>15.89439687578647</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.22802531087024</v>
+        <v>26.76778524894807</v>
       </c>
       <c r="C15">
-        <v>10.92145678522052</v>
+        <v>14.28385593041398</v>
       </c>
       <c r="D15">
-        <v>6.541867303835175</v>
+        <v>9.236539587537077</v>
       </c>
       <c r="E15">
-        <v>11.35333252025633</v>
+        <v>6.831655069896267</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.19539551518435</v>
+        <v>28.66552165116137</v>
       </c>
       <c r="H15">
-        <v>13.44351087902692</v>
+        <v>8.797521326568978</v>
       </c>
       <c r="I15">
-        <v>20.25095366623423</v>
+        <v>12.60626623743914</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.887533260086538</v>
+        <v>8.430967513323258</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.64969715969677</v>
+        <v>11.18078780730503</v>
       </c>
       <c r="O15">
-        <v>20.33702638248303</v>
+        <v>15.84591907822917</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85924304357162</v>
+        <v>25.91086250177811</v>
       </c>
       <c r="C16">
-        <v>10.77629454734438</v>
+        <v>13.94151626081926</v>
       </c>
       <c r="D16">
-        <v>6.448806841324791</v>
+        <v>8.92757805900923</v>
       </c>
       <c r="E16">
-        <v>11.3738818611647</v>
+        <v>6.827711940403088</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.07504590454463</v>
+        <v>27.87458544603637</v>
       </c>
       <c r="H16">
-        <v>13.45883590411734</v>
+        <v>8.726227321786444</v>
       </c>
       <c r="I16">
-        <v>20.29901313957142</v>
+        <v>12.5807668641658</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.858417560835607</v>
+        <v>8.239867674486801</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.67396544706346</v>
+        <v>11.24582052219846</v>
       </c>
       <c r="O16">
-        <v>20.33550852353794</v>
+        <v>15.57136231377</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.62918320996729</v>
+        <v>25.37189204417502</v>
       </c>
       <c r="C17">
-        <v>10.68598396158716</v>
+        <v>13.72739594663608</v>
       </c>
       <c r="D17">
-        <v>6.391471740306885</v>
+        <v>8.733724195332067</v>
       </c>
       <c r="E17">
-        <v>11.38701351090051</v>
+        <v>6.826923275686229</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.00372794312233</v>
+        <v>27.38862764968183</v>
       </c>
       <c r="H17">
-        <v>13.46895456132168</v>
+        <v>8.684650830404143</v>
       </c>
       <c r="I17">
-        <v>20.32978470462549</v>
+        <v>12.57024248044146</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.840961264068016</v>
+        <v>8.121639057283261</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.68931603435835</v>
+        <v>11.28685911279701</v>
       </c>
       <c r="O17">
-        <v>20.33605035756915</v>
+        <v>15.40586041792466</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.49549129699225</v>
+        <v>25.05698646923245</v>
       </c>
       <c r="C18">
-        <v>10.63358898531044</v>
+        <v>13.60274409108365</v>
       </c>
       <c r="D18">
-        <v>6.358417214557016</v>
+        <v>8.620626174811234</v>
       </c>
       <c r="E18">
-        <v>11.3947594518248</v>
+        <v>6.827054657814697</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.96364330286156</v>
+        <v>27.10890535169145</v>
       </c>
       <c r="H18">
-        <v>13.47503788624505</v>
+        <v>8.661519255861872</v>
       </c>
       <c r="I18">
-        <v>20.34795627755056</v>
+        <v>12.5660130859845</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.831072019143791</v>
+        <v>8.053288053356592</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.69831552835907</v>
+        <v>11.31087472481904</v>
       </c>
       <c r="O18">
-        <v>20.33690324636186</v>
+        <v>15.31175684262056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.44999438012236</v>
+        <v>24.94952023055736</v>
       </c>
       <c r="C19">
-        <v>10.61577267553485</v>
+        <v>13.56028365946639</v>
       </c>
       <c r="D19">
-        <v>6.347213604729031</v>
+        <v>8.582057450207822</v>
       </c>
       <c r="E19">
-        <v>11.3974152282132</v>
+        <v>6.827198277312002</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.95023313303638</v>
+        <v>27.01416606673256</v>
       </c>
       <c r="H19">
-        <v>13.4771428002051</v>
+        <v>8.653820495053131</v>
       </c>
       <c r="I19">
-        <v>20.35418993273205</v>
+        <v>12.56488890010906</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.827749859593043</v>
+        <v>8.030087314852857</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.70139185822296</v>
+        <v>11.31907583596675</v>
       </c>
       <c r="O19">
-        <v>20.33728496311219</v>
+        <v>15.28008313427853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.65381589173056</v>
+        <v>25.42977335631927</v>
       </c>
       <c r="C20">
-        <v>10.69564459400092</v>
+        <v>13.75034452442747</v>
       </c>
       <c r="D20">
-        <v>6.397583423005118</v>
+        <v>8.75452542439889</v>
       </c>
       <c r="E20">
-        <v>11.38559565155622</v>
+        <v>6.826946366602998</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.01122330232081</v>
+        <v>27.44038212286564</v>
       </c>
       <c r="H20">
-        <v>13.46785015244247</v>
+        <v>8.688995503475148</v>
       </c>
       <c r="I20">
-        <v>20.32646008618404</v>
+        <v>12.57117275278975</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.842803922298275</v>
+        <v>8.134261212264287</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.68766432262306</v>
+        <v>11.28244772384915</v>
       </c>
       <c r="O20">
-        <v>20.33593665892238</v>
+        <v>15.42336597106165</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.32202630034191</v>
+        <v>26.9849421421008</v>
       </c>
       <c r="C21">
-        <v>10.958536569987</v>
+        <v>14.37096204082456</v>
       </c>
       <c r="D21">
-        <v>6.565807148214523</v>
+        <v>9.314983232107965</v>
       </c>
       <c r="E21">
-        <v>11.34818954965485</v>
+        <v>6.833188675734443</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.22723394886103</v>
+        <v>28.86945062143318</v>
       </c>
       <c r="H21">
-        <v>13.43977619544839</v>
+        <v>8.816605136869018</v>
       </c>
       <c r="I21">
-        <v>20.23894485224249</v>
+        <v>12.61447840174211</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.895173794858342</v>
+        <v>8.479985460170541</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.6435744990547</v>
+        <v>11.16435850519054</v>
       </c>
       <c r="O21">
-        <v>20.33787364827594</v>
+        <v>15.91770037525186</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.74579785370551</v>
+        <v>27.95820466834151</v>
       </c>
       <c r="C22">
-        <v>11.1260963381439</v>
+        <v>14.76299420062902</v>
       </c>
       <c r="D22">
-        <v>6.67478874401735</v>
+        <v>9.667306111711547</v>
       </c>
       <c r="E22">
-        <v>11.32546251124673</v>
+        <v>6.842778298840645</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.37647380874775</v>
+        <v>29.80034986732921</v>
       </c>
       <c r="H22">
-        <v>13.42377826820027</v>
+        <v>8.907213025788074</v>
       </c>
       <c r="I22">
-        <v>20.18597779607476</v>
+        <v>12.660228404629</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.930698418922033</v>
+        <v>8.702496149650656</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.61627161660923</v>
+        <v>11.09103663630524</v>
       </c>
       <c r="O22">
-        <v>20.34395928886259</v>
+        <v>16.25022105703493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52084136758495</v>
+        <v>27.44267589697801</v>
       </c>
       <c r="C23">
-        <v>11.03706706804784</v>
+        <v>14.55501211562184</v>
       </c>
       <c r="D23">
-        <v>6.616724233765894</v>
+        <v>9.480529765597016</v>
       </c>
       <c r="E23">
-        <v>11.33743489770324</v>
+        <v>6.837141415115244</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.29609733063331</v>
+        <v>29.30384174095547</v>
       </c>
       <c r="H23">
-        <v>13.43210141180827</v>
+        <v>8.858183072928732</v>
       </c>
       <c r="I23">
-        <v>20.21385932889708</v>
+        <v>12.63415678225024</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.911621892426099</v>
+        <v>8.584067082504841</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.63070546897704</v>
+        <v>11.12980709814576</v>
       </c>
       <c r="O23">
-        <v>20.3402703995722</v>
+        <v>16.07189588536106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.64268389360313</v>
+        <v>25.4036209328172</v>
       </c>
       <c r="C24">
-        <v>10.6912784964476</v>
+        <v>13.73997430099728</v>
       </c>
       <c r="D24">
-        <v>6.394820614095393</v>
+        <v>8.745126327441755</v>
       </c>
       <c r="E24">
-        <v>11.38623605408344</v>
+        <v>6.826934109023115</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.00783179112942</v>
+        <v>27.41698496604977</v>
       </c>
       <c r="H24">
-        <v>13.46834862724744</v>
+        <v>8.687028877093761</v>
       </c>
       <c r="I24">
-        <v>20.32796164938616</v>
+        <v>12.57074651746169</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.841970399306877</v>
+        <v>8.128555915057408</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.68841051871152</v>
+        <v>11.28444080049303</v>
       </c>
       <c r="O24">
-        <v>20.33598637571557</v>
+        <v>15.41544845060621</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.64376959321391</v>
+        <v>23.01637877079381</v>
       </c>
       <c r="C25">
-        <v>10.30122706199249</v>
+        <v>12.80391025454938</v>
       </c>
       <c r="D25">
-        <v>6.152707932490153</v>
+        <v>7.890618740426447</v>
       </c>
       <c r="E25">
-        <v>11.44625235129153</v>
+        <v>6.83811257273552</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.73278178764267</v>
+        <v>25.37473815017525</v>
       </c>
       <c r="H25">
-        <v>13.51751126039441</v>
+        <v>8.532143451396523</v>
       </c>
       <c r="I25">
-        <v>20.46909482431296</v>
+        <v>12.57133921665982</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.772643898166283</v>
+        <v>7.62415452883449</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.75716589143623</v>
+        <v>11.46687430415989</v>
       </c>
       <c r="O25">
-        <v>20.35205097952063</v>
+        <v>14.74913881869716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09407742551282</v>
+        <v>14.25026975219323</v>
       </c>
       <c r="C2">
-        <v>12.0677284625406</v>
+        <v>8.008970032045838</v>
       </c>
       <c r="D2">
-        <v>7.20729952739033</v>
+        <v>6.994558531180786</v>
       </c>
       <c r="E2">
-        <v>6.863805245797791</v>
+        <v>6.566358552827547</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.87387342637562</v>
+        <v>39.78347955707179</v>
       </c>
       <c r="H2">
-        <v>8.442157256143034</v>
+        <v>3.149576306990468</v>
       </c>
       <c r="I2">
-        <v>12.62443530345244</v>
+        <v>3.809115790585045</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.95368394980919</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.07376971153633</v>
       </c>
       <c r="L2">
-        <v>7.243806096429164</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.89894399229983</v>
       </c>
       <c r="N2">
-        <v>11.61377780054274</v>
+        <v>6.429394795133477</v>
       </c>
       <c r="O2">
-        <v>14.29564376190541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.50471566572387</v>
+      </c>
+      <c r="P2">
+        <v>14.92695292575277</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68716570836029</v>
+        <v>13.39163917819853</v>
       </c>
       <c r="C3">
-        <v>11.54096212439683</v>
+        <v>7.50818011592544</v>
       </c>
       <c r="D3">
-        <v>6.709723456408081</v>
+        <v>6.513094985811952</v>
       </c>
       <c r="E3">
-        <v>6.891302613758373</v>
+        <v>6.37662541044204</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.86436752802514</v>
+        <v>38.67477781713269</v>
       </c>
       <c r="H3">
-        <v>8.395326518204739</v>
+        <v>3.372532697377756</v>
       </c>
       <c r="I3">
-        <v>12.68988947307245</v>
+        <v>4.003924893105721</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.82126084008574</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.81866459293659</v>
       </c>
       <c r="L3">
-        <v>6.981905762693047</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.1199643673598</v>
       </c>
       <c r="N3">
-        <v>11.72080922557158</v>
+        <v>6.237967124053048</v>
       </c>
       <c r="O3">
-        <v>14.01192860344352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.10018105134229</v>
+      </c>
+      <c r="P3">
+        <v>15.02906925620324</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77147274401742</v>
+        <v>12.83546652929647</v>
       </c>
       <c r="C4">
-        <v>11.2044291533783</v>
+        <v>7.187964656579275</v>
       </c>
       <c r="D4">
-        <v>6.386974079067517</v>
+        <v>6.227765042643822</v>
       </c>
       <c r="E4">
-        <v>6.912896359114801</v>
+        <v>6.256094201545072</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.25065471649162</v>
+        <v>37.98660246185674</v>
       </c>
       <c r="H4">
-        <v>8.373244350553581</v>
+        <v>3.514267233837645</v>
       </c>
       <c r="I4">
-        <v>12.74350378999156</v>
+        <v>4.128410262165504</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.74183082258001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.66247726350365</v>
       </c>
       <c r="L4">
-        <v>6.819637867388916</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.61335872016173</v>
       </c>
       <c r="N4">
-        <v>11.79010534102842</v>
+        <v>6.11738016050719</v>
       </c>
       <c r="O4">
-        <v>13.84947021980745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.843858587715685</v>
+      </c>
+      <c r="P4">
+        <v>15.09256541805357</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.38521795816621</v>
+        <v>12.59574087167689</v>
       </c>
       <c r="C5">
-        <v>11.06411240994849</v>
+        <v>7.059690145889721</v>
       </c>
       <c r="D5">
-        <v>6.251084806321193</v>
+        <v>6.116948752415741</v>
       </c>
       <c r="E5">
-        <v>6.922841720692313</v>
+        <v>6.204850478791275</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.00249585949999</v>
+        <v>37.6842826256978</v>
       </c>
       <c r="H5">
-        <v>8.365875087040862</v>
+        <v>3.573690402559154</v>
       </c>
       <c r="I5">
-        <v>12.7685652751092</v>
+        <v>4.18291616243903</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.70610930994818</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.59031225578346</v>
       </c>
       <c r="L5">
-        <v>6.753242600830347</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.39822883739689</v>
       </c>
       <c r="N5">
-        <v>11.81922914230787</v>
+        <v>6.06793207454707</v>
       </c>
       <c r="O5">
-        <v>13.78622535224612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.735900286759318</v>
+      </c>
+      <c r="P5">
+        <v>15.11619159894453</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32028739604312</v>
+        <v>12.54828320562768</v>
       </c>
       <c r="C6">
-        <v>11.04062482450367</v>
+        <v>7.044836736464529</v>
       </c>
       <c r="D6">
-        <v>6.22825585065373</v>
+        <v>6.09837774093612</v>
       </c>
       <c r="E6">
-        <v>6.924561220576901</v>
+        <v>6.194925440881335</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.96141810071562</v>
+        <v>37.60912739932833</v>
       </c>
       <c r="H6">
-        <v>8.364748375609073</v>
+        <v>3.584155610848736</v>
       </c>
       <c r="I6">
-        <v>12.77291609399318</v>
+        <v>4.195276325272541</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.69551914052505</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.56774834796003</v>
       </c>
       <c r="L6">
-        <v>6.74220443208291</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.36019120157196</v>
       </c>
       <c r="N6">
-        <v>11.82411817950891</v>
+        <v>6.060194494068385</v>
       </c>
       <c r="O6">
-        <v>13.77590218285633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.715870357681744</v>
+      </c>
+      <c r="P6">
+        <v>15.11713239825074</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76631671460973</v>
+        <v>12.81295993641752</v>
       </c>
       <c r="C7">
-        <v>11.2025494878798</v>
+        <v>7.203972562244109</v>
       </c>
       <c r="D7">
-        <v>6.38515915011635</v>
+        <v>6.226216600862252</v>
       </c>
       <c r="E7">
-        <v>6.913025897359891</v>
+        <v>6.251754164624758</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.24729958845477</v>
+        <v>37.91525808054027</v>
       </c>
       <c r="H7">
-        <v>8.373138434434919</v>
+        <v>3.516470940094109</v>
       </c>
       <c r="I7">
-        <v>12.74382898026476</v>
+        <v>4.137721152490732</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.72860306382263</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.63271629641035</v>
       </c>
       <c r="L7">
-        <v>6.818743395103363</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.60545745403777</v>
       </c>
       <c r="N7">
-        <v>11.79049454959483</v>
+        <v>6.118119525437486</v>
       </c>
       <c r="O7">
-        <v>13.84860530126291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.837034597022551</v>
+      </c>
+      <c r="P7">
+        <v>15.08475092244558</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6196939625743</v>
+        <v>13.93652775033907</v>
       </c>
       <c r="C8">
-        <v>11.88888158791782</v>
+        <v>7.86066256971214</v>
       </c>
       <c r="D8">
-        <v>7.039292952864074</v>
+        <v>6.831896137872924</v>
       </c>
       <c r="E8">
-        <v>6.872285265284035</v>
+        <v>6.497144748246847</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.52475054533368</v>
+        <v>39.31701827128663</v>
       </c>
       <c r="H8">
-        <v>8.424596933904988</v>
+        <v>3.22723444591075</v>
       </c>
       <c r="I8">
-        <v>12.64411873818759</v>
+        <v>3.886247976073917</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.89106437277248</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.94833009819842</v>
       </c>
       <c r="L8">
-        <v>7.153861620045657</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.63003584071012</v>
       </c>
       <c r="N8">
-        <v>11.64993023254244</v>
+        <v>6.365872062487609</v>
       </c>
       <c r="O8">
-        <v>14.19538778666632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.36015223732493</v>
+      </c>
+      <c r="P8">
+        <v>14.95144557479824</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84589047369448</v>
+        <v>15.9377127323036</v>
       </c>
       <c r="C9">
-        <v>13.12667811803928</v>
+        <v>9.019799853289575</v>
       </c>
       <c r="D9">
-        <v>8.186776638269164</v>
+        <v>7.941414589475608</v>
       </c>
       <c r="E9">
-        <v>6.831526373949473</v>
+        <v>6.952770431640711</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.06291292753929</v>
+        <v>42.10876497427115</v>
       </c>
       <c r="H9">
-        <v>8.580473486350995</v>
+        <v>2.695127341908154</v>
       </c>
       <c r="I9">
-        <v>12.56250955792603</v>
+        <v>3.416885160004049</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.24651446479766</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.6197630258077</v>
       </c>
       <c r="L9">
-        <v>7.795625675978456</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.42402791150237</v>
       </c>
       <c r="N9">
-        <v>11.40341332409192</v>
+        <v>6.823572952603733</v>
       </c>
       <c r="O9">
-        <v>14.96789797650569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.32745912632568</v>
+      </c>
+      <c r="P9">
+        <v>14.71035294850137</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.97170007906965</v>
+        <v>17.20250221263606</v>
       </c>
       <c r="C10">
-        <v>13.96574521714123</v>
+        <v>9.853091661140603</v>
       </c>
       <c r="D10">
-        <v>8.949482430343572</v>
+        <v>8.677234901519624</v>
       </c>
       <c r="E10">
-        <v>6.827882225467878</v>
+        <v>7.187239038068524</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.93000324622904</v>
+        <v>43.78671565850372</v>
       </c>
       <c r="H10">
-        <v>8.731078325460826</v>
+        <v>2.356458082078097</v>
       </c>
       <c r="I10">
-        <v>12.58221907168714</v>
+        <v>3.106714807241869</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.45255330742868</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.97865438838673</v>
       </c>
       <c r="L10">
-        <v>8.253309847061603</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.58664329804644</v>
       </c>
       <c r="N10">
-        <v>11.24119409268766</v>
+        <v>7.040313130556553</v>
       </c>
       <c r="O10">
-        <v>15.5903938808704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.89596099741493</v>
+      </c>
+      <c r="P10">
+        <v>14.49631472980187</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.88669178035776</v>
+        <v>17.27175609496523</v>
       </c>
       <c r="C11">
-        <v>14.33153471162674</v>
+        <v>10.53736117138829</v>
       </c>
       <c r="D11">
-        <v>9.279484732288701</v>
+        <v>8.989721482270987</v>
       </c>
       <c r="E11">
-        <v>6.832467747322863</v>
+        <v>6.777281440282137</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.77701223891664</v>
+        <v>41.99245365970282</v>
       </c>
       <c r="H11">
-        <v>8.807919801452028</v>
+        <v>3.178123413003195</v>
       </c>
       <c r="I11">
-        <v>12.61067400959168</v>
+        <v>3.044912536928631</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.03096204473818</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.06184314811815</v>
       </c>
       <c r="L11">
-        <v>8.457778785830557</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.91590015330949</v>
       </c>
       <c r="N11">
-        <v>11.17178894221367</v>
+        <v>6.295971012921957</v>
       </c>
       <c r="O11">
-        <v>15.88511394218922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.33381368256408</v>
+      </c>
+      <c r="P11">
+        <v>14.08926456123302</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.22577315326077</v>
+        <v>17.09019492480334</v>
       </c>
       <c r="C12">
-        <v>14.46772383456539</v>
+        <v>10.92943184634946</v>
       </c>
       <c r="D12">
-        <v>9.402049673927374</v>
+        <v>9.103581344405749</v>
       </c>
       <c r="E12">
-        <v>6.835145969170132</v>
+        <v>6.653728695851719</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.09723679878516</v>
+        <v>40.18800263055528</v>
       </c>
       <c r="H12">
-        <v>8.838251961297289</v>
+        <v>4.445585779925591</v>
       </c>
       <c r="I12">
-        <v>12.62442895632099</v>
+        <v>3.036319156107528</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.64527065729661</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.252702865495</v>
       </c>
       <c r="L12">
-        <v>8.534619464637169</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.96305130094291</v>
       </c>
       <c r="N12">
-        <v>11.14616573752215</v>
+        <v>5.69166235736133</v>
       </c>
       <c r="O12">
-        <v>15.99834096360762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.74279778360515</v>
+      </c>
+      <c r="P12">
+        <v>13.82567549775245</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.15307402253647</v>
+        <v>16.67571855201754</v>
       </c>
       <c r="C13">
-        <v>14.43849710823783</v>
+        <v>11.15267065727317</v>
       </c>
       <c r="D13">
-        <v>9.375759221314544</v>
+        <v>9.074840142806885</v>
       </c>
       <c r="E13">
-        <v>6.834526578159241</v>
+        <v>6.743602308778465</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.0282962313572</v>
+        <v>38.13891580503745</v>
       </c>
       <c r="H13">
-        <v>8.831663958167303</v>
+        <v>5.813762660256693</v>
       </c>
       <c r="I13">
-        <v>12.6213312772883</v>
+        <v>3.082936019166608</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.24246417794556</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.43181089673703</v>
       </c>
       <c r="L13">
-        <v>8.518097274048714</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.79162513287557</v>
       </c>
       <c r="N13">
-        <v>11.15165436916783</v>
+        <v>5.179528429785661</v>
       </c>
       <c r="O13">
-        <v>15.97388388374711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.07578734795916</v>
+      </c>
+      <c r="P13">
+        <v>13.64573888485362</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.91473617935143</v>
+        <v>16.26966069887621</v>
       </c>
       <c r="C14">
-        <v>14.34278590947626</v>
+        <v>11.24109300641311</v>
       </c>
       <c r="D14">
-        <v>9.289616092653452</v>
+        <v>8.98990840217974</v>
       </c>
       <c r="E14">
-        <v>6.832668959002987</v>
+        <v>6.933579067043508</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.80336859885261</v>
+        <v>36.56416544797217</v>
       </c>
       <c r="H14">
-        <v>8.810390317992949</v>
+        <v>6.799914159117118</v>
       </c>
       <c r="I14">
-        <v>12.61174491777929</v>
+        <v>3.143208848810287</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.94994712597514</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.84776658754451</v>
       </c>
       <c r="L14">
-        <v>8.46411254068364</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.5693834551512</v>
       </c>
       <c r="N14">
-        <v>11.16966752836122</v>
+        <v>4.893860845845465</v>
       </c>
       <c r="O14">
-        <v>15.89439687578647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.569277628875115</v>
+      </c>
+      <c r="P14">
+        <v>13.56041631456542</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.76778524894807</v>
+        <v>16.11374684539071</v>
       </c>
       <c r="C15">
-        <v>14.28385593041398</v>
+        <v>11.23239467804762</v>
       </c>
       <c r="D15">
-        <v>9.236539587537077</v>
+        <v>8.938398187017432</v>
       </c>
       <c r="E15">
-        <v>6.831655069896267</v>
+        <v>6.986614017863222</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.66552165116137</v>
+        <v>36.10779949252674</v>
       </c>
       <c r="H15">
-        <v>8.797521326568978</v>
+        <v>7.03250383236898</v>
       </c>
       <c r="I15">
-        <v>12.60626623743914</v>
+        <v>3.174544578534957</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.87168776958472</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.69474809264583</v>
       </c>
       <c r="L15">
-        <v>8.430967513323258</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.46599572237618</v>
       </c>
       <c r="N15">
-        <v>11.18078780730503</v>
+        <v>4.834907201389763</v>
       </c>
       <c r="O15">
-        <v>15.84591907822917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.427891138131983</v>
+      </c>
+      <c r="P15">
+        <v>13.55286433193346</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91086250177811</v>
+        <v>15.63589791825595</v>
       </c>
       <c r="C16">
-        <v>13.94151626081926</v>
+        <v>10.87482982352963</v>
       </c>
       <c r="D16">
-        <v>8.92757805900923</v>
+        <v>8.641646741564317</v>
       </c>
       <c r="E16">
-        <v>6.827711940403088</v>
+        <v>6.856954194945904</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.87458544603637</v>
+        <v>35.68422938223866</v>
       </c>
       <c r="H16">
-        <v>8.726227321786444</v>
+        <v>6.85940756770413</v>
       </c>
       <c r="I16">
-        <v>12.5807668641658</v>
+        <v>3.302681960599331</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.85186435338266</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.68254712260486</v>
       </c>
       <c r="L16">
-        <v>8.239867674486801</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.00988670684078</v>
       </c>
       <c r="N16">
-        <v>11.24582052219846</v>
+        <v>4.831323126029425</v>
       </c>
       <c r="O16">
-        <v>15.57136231377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.291630585823626</v>
+      </c>
+      <c r="P16">
+        <v>13.67638950146128</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.37189204417502</v>
+        <v>15.48886390589556</v>
       </c>
       <c r="C17">
-        <v>13.72739594663608</v>
+        <v>10.54458580235151</v>
       </c>
       <c r="D17">
-        <v>8.733724195332067</v>
+        <v>8.456435785106427</v>
       </c>
       <c r="E17">
-        <v>6.826923275686229</v>
+        <v>6.629227942173102</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.38862764968183</v>
+        <v>36.21756003476028</v>
       </c>
       <c r="H17">
-        <v>8.684650830404143</v>
+        <v>6.177718185789534</v>
       </c>
       <c r="I17">
-        <v>12.57024248044146</v>
+        <v>3.369887652619556</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.99317532054477</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.98310447211021</v>
       </c>
       <c r="L17">
-        <v>8.121639057283261</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.77643078057831</v>
       </c>
       <c r="N17">
-        <v>11.28685911279701</v>
+        <v>4.966741094201668</v>
       </c>
       <c r="O17">
-        <v>15.40586041792466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.462608384601959</v>
+      </c>
+      <c r="P17">
+        <v>13.81408315130971</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.05698646923245</v>
+        <v>15.62908259831303</v>
       </c>
       <c r="C18">
-        <v>13.60274409108365</v>
+        <v>10.1924876624976</v>
       </c>
       <c r="D18">
-        <v>8.620626174811234</v>
+        <v>8.350116787452903</v>
       </c>
       <c r="E18">
-        <v>6.827054657814697</v>
+        <v>6.42270076299441</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.10890535169145</v>
+        <v>37.67962445071424</v>
       </c>
       <c r="H18">
-        <v>8.661519255861872</v>
+        <v>5.02312938236873</v>
       </c>
       <c r="I18">
-        <v>12.5660130859845</v>
+        <v>3.379952577171013</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.29831497878557</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.61343945512996</v>
       </c>
       <c r="L18">
-        <v>8.053288053356592</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.71861386945502</v>
       </c>
       <c r="N18">
-        <v>11.31087472481904</v>
+        <v>5.311577662154746</v>
       </c>
       <c r="O18">
-        <v>15.31175684262056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.924572023987842</v>
+      </c>
+      <c r="P18">
+        <v>13.99757136651482</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.94952023055736</v>
+        <v>15.95670623464865</v>
       </c>
       <c r="C19">
-        <v>13.56028365946639</v>
+        <v>9.885558406386675</v>
       </c>
       <c r="D19">
-        <v>8.582057450207822</v>
+        <v>8.316437921334634</v>
       </c>
       <c r="E19">
-        <v>6.827198277312002</v>
+        <v>6.461024728219365</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.01416606673256</v>
+        <v>39.65957444725466</v>
       </c>
       <c r="H19">
-        <v>8.653820495053131</v>
+        <v>3.710459969631102</v>
       </c>
       <c r="I19">
-        <v>12.56488890010906</v>
+        <v>3.358392405230091</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.69310056763623</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.42744030182595</v>
       </c>
       <c r="L19">
-        <v>8.030087314852857</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.80032707169108</v>
       </c>
       <c r="N19">
-        <v>11.31907583596675</v>
+        <v>5.88665036590991</v>
       </c>
       <c r="O19">
-        <v>15.28008313427853</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.57762434726518</v>
+      </c>
+      <c r="P19">
+        <v>14.2145798514522</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.42977335631927</v>
+        <v>16.82999023037401</v>
       </c>
       <c r="C20">
-        <v>13.75034452442747</v>
+        <v>9.683173331261436</v>
       </c>
       <c r="D20">
-        <v>8.75452542439889</v>
+        <v>8.48886877485281</v>
       </c>
       <c r="E20">
-        <v>6.826946366602998</v>
+        <v>7.113059838350693</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.44038212286564</v>
+        <v>43.15311256288488</v>
       </c>
       <c r="H20">
-        <v>8.688995503475148</v>
+        <v>2.447590991037024</v>
       </c>
       <c r="I20">
-        <v>12.57117275278975</v>
+        <v>3.216638320720852</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.35814650815814</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.79550083080579</v>
       </c>
       <c r="L20">
-        <v>8.134261212264287</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.27691302770885</v>
       </c>
       <c r="N20">
-        <v>11.28244772384915</v>
+        <v>6.983544325443418</v>
       </c>
       <c r="O20">
-        <v>15.42336597106165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.73099002697341</v>
+      </c>
+      <c r="P20">
+        <v>14.52698014245042</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.9849421421008</v>
+        <v>17.84904082734116</v>
       </c>
       <c r="C21">
-        <v>14.37096204082456</v>
+        <v>10.2389620415387</v>
       </c>
       <c r="D21">
-        <v>9.314983232107965</v>
+        <v>9.0302044750579</v>
       </c>
       <c r="E21">
-        <v>6.833188675734443</v>
+        <v>7.413943439778649</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.86945062143318</v>
+        <v>44.90597584116865</v>
       </c>
       <c r="H21">
-        <v>8.816605136869018</v>
+        <v>2.1478439000814</v>
       </c>
       <c r="I21">
-        <v>12.61447840174211</v>
+        <v>2.969502207556119</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.6167601767459</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.27694200846907</v>
       </c>
       <c r="L21">
-        <v>8.479985460170541</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.16088541248932</v>
       </c>
       <c r="N21">
-        <v>11.16435850519054</v>
+        <v>7.302837225291743</v>
       </c>
       <c r="O21">
-        <v>15.91770037525186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.30044922308587</v>
+      </c>
+      <c r="P21">
+        <v>14.42571183547753</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.95820466834151</v>
+        <v>18.47905611291641</v>
       </c>
       <c r="C22">
-        <v>14.76299420062902</v>
+        <v>10.59376658015329</v>
       </c>
       <c r="D22">
-        <v>9.667306111711547</v>
+        <v>9.370109029393275</v>
       </c>
       <c r="E22">
-        <v>6.842778298840645</v>
+        <v>7.570127055058158</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.80034986732921</v>
+        <v>45.96263881382021</v>
       </c>
       <c r="H22">
-        <v>8.907213025788074</v>
+        <v>1.96835823854836</v>
       </c>
       <c r="I22">
-        <v>12.660228404629</v>
+        <v>2.802809858136535</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.77267696870062</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.56293500330293</v>
       </c>
       <c r="L22">
-        <v>8.702496149650656</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.70957317289742</v>
       </c>
       <c r="N22">
-        <v>11.09103663630524</v>
+        <v>7.453428956244765</v>
       </c>
       <c r="O22">
-        <v>16.25022105703493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.62049839894567</v>
+      </c>
+      <c r="P22">
+        <v>14.35135113960514</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.44267589697801</v>
+        <v>18.16212948585843</v>
       </c>
       <c r="C23">
-        <v>14.55501211562184</v>
+        <v>10.39011669855951</v>
       </c>
       <c r="D23">
-        <v>9.480529765597016</v>
+        <v>9.190078404289249</v>
       </c>
       <c r="E23">
-        <v>6.837141415115244</v>
+        <v>7.49063302961545</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.30384174095547</v>
+        <v>45.46671596802329</v>
       </c>
       <c r="H23">
-        <v>8.858183072928732</v>
+        <v>2.062467197134562</v>
       </c>
       <c r="I23">
-        <v>12.63415678225024</v>
+        <v>2.879465659009706</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.70309930090862</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.44128044850138</v>
       </c>
       <c r="L23">
-        <v>8.584067082504841</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.42328165796545</v>
       </c>
       <c r="N23">
-        <v>11.12980709814576</v>
+        <v>7.371883543890008</v>
       </c>
       <c r="O23">
-        <v>16.07189588536106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.45573639817543</v>
+      </c>
+      <c r="P23">
+        <v>14.39995070415996</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.4036209328172</v>
+        <v>16.88279811055076</v>
       </c>
       <c r="C24">
-        <v>13.73997430099728</v>
+        <v>9.62123980539481</v>
       </c>
       <c r="D24">
-        <v>8.745126327441755</v>
+        <v>8.480483618003062</v>
       </c>
       <c r="E24">
-        <v>6.826934109023115</v>
+        <v>7.177765071758883</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.41698496604977</v>
+        <v>43.45836355657247</v>
       </c>
       <c r="H24">
-        <v>8.687028877093761</v>
+        <v>2.427892226794011</v>
       </c>
       <c r="I24">
-        <v>12.57074651746169</v>
+        <v>3.196940949864782</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.42136302634341</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.9321580070589</v>
       </c>
       <c r="L24">
-        <v>8.128555915057408</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.28484477491088</v>
       </c>
       <c r="N24">
-        <v>11.28444080049303</v>
+        <v>7.058219579966549</v>
       </c>
       <c r="O24">
-        <v>15.41544845060621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.80475417638835</v>
+      </c>
+      <c r="P24">
+        <v>14.57138687387892</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.01637877079381</v>
+        <v>15.39215400326483</v>
       </c>
       <c r="C25">
-        <v>12.80391025454938</v>
+        <v>8.743694792961767</v>
       </c>
       <c r="D25">
-        <v>7.890618740426447</v>
+        <v>7.655024681639334</v>
       </c>
       <c r="E25">
-        <v>6.83811257273552</v>
+        <v>6.826894775875441</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.37473815017525</v>
+        <v>41.25152643873356</v>
       </c>
       <c r="H25">
-        <v>8.532143451396523</v>
+        <v>2.837489599687232</v>
       </c>
       <c r="I25">
-        <v>12.57133921665982</v>
+        <v>3.555714341591842</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.12677379848605</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.38835725041382</v>
       </c>
       <c r="L25">
-        <v>7.62415452883449</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.95473075999538</v>
       </c>
       <c r="N25">
-        <v>11.46687430415989</v>
+        <v>6.70512349080354</v>
       </c>
       <c r="O25">
-        <v>14.74913881869716</v>
+        <v>11.0648749873066</v>
+      </c>
+      <c r="P25">
+        <v>14.76085709965611</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.25026975219323</v>
+        <v>13.51866946937273</v>
       </c>
       <c r="C2">
-        <v>8.008970032045838</v>
+        <v>8.362864673017372</v>
       </c>
       <c r="D2">
-        <v>6.994558531180786</v>
+        <v>7.005283525876811</v>
       </c>
       <c r="E2">
-        <v>6.566358552827547</v>
+        <v>6.485429480072074</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.78347955707179</v>
+        <v>36.68911374315967</v>
       </c>
       <c r="H2">
-        <v>3.149576306990468</v>
+        <v>2.984321384277134</v>
       </c>
       <c r="I2">
-        <v>3.809115790585045</v>
+        <v>3.603148260758128</v>
       </c>
       <c r="J2">
-        <v>12.95368394980919</v>
+        <v>12.45548218369798</v>
       </c>
       <c r="K2">
-        <v>21.07376971153633</v>
+        <v>19.59458996388678</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.53006189571971</v>
       </c>
       <c r="M2">
-        <v>11.89894399229983</v>
+        <v>13.5457085055213</v>
       </c>
       <c r="N2">
-        <v>6.429394795133477</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.50471566572387</v>
+        <v>11.80704209403639</v>
       </c>
       <c r="P2">
-        <v>14.92695292575277</v>
+        <v>6.636483436266725</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.27722016882051</v>
+      </c>
+      <c r="R2">
+        <v>14.42979579433485</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.39163917819853</v>
+        <v>12.71417850873963</v>
       </c>
       <c r="C3">
-        <v>7.50818011592544</v>
+        <v>7.784477604875797</v>
       </c>
       <c r="D3">
-        <v>6.513094985811952</v>
+        <v>6.524511415918361</v>
       </c>
       <c r="E3">
-        <v>6.37662541044204</v>
+        <v>6.321857006689843</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.67477781713269</v>
+        <v>35.87749649606943</v>
       </c>
       <c r="H3">
-        <v>3.372532697377756</v>
+        <v>3.186656886330248</v>
       </c>
       <c r="I3">
-        <v>4.003924893105721</v>
+        <v>3.772812545364184</v>
       </c>
       <c r="J3">
-        <v>12.82126084008574</v>
+        <v>12.32337949626771</v>
       </c>
       <c r="K3">
-        <v>20.81866459293659</v>
+        <v>19.4435522691554</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.52590214389399</v>
       </c>
       <c r="M3">
-        <v>11.1199643673598</v>
+        <v>13.34315102925316</v>
       </c>
       <c r="N3">
-        <v>6.237967124053048</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.10018105134229</v>
+        <v>11.05391291716567</v>
       </c>
       <c r="P3">
-        <v>15.02906925620324</v>
+        <v>6.450410297838081</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.890290185054162</v>
+      </c>
+      <c r="R3">
+        <v>14.55443531848486</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83546652929647</v>
+        <v>12.19150330872469</v>
       </c>
       <c r="C4">
-        <v>7.187964656579275</v>
+        <v>7.413202484721157</v>
       </c>
       <c r="D4">
-        <v>6.227765042643822</v>
+        <v>6.235964436369391</v>
       </c>
       <c r="E4">
-        <v>6.256094201545072</v>
+        <v>6.217932342930334</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.98660246185674</v>
+        <v>35.37866285168793</v>
       </c>
       <c r="H4">
-        <v>3.514267233837645</v>
+        <v>3.315395547205624</v>
       </c>
       <c r="I4">
-        <v>4.128410262165504</v>
+        <v>3.881600115098865</v>
       </c>
       <c r="J4">
-        <v>12.74183082258001</v>
+        <v>12.24152850274122</v>
       </c>
       <c r="K4">
-        <v>20.66247726350365</v>
+        <v>19.35077676368788</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.51913946713298</v>
       </c>
       <c r="M4">
-        <v>10.61335872016173</v>
+        <v>13.23440833706142</v>
       </c>
       <c r="N4">
-        <v>6.11738016050719</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.843858587715685</v>
+        <v>10.56407546780845</v>
       </c>
       <c r="P4">
-        <v>15.09256541805357</v>
+        <v>6.333575687930071</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.644843188888755</v>
+      </c>
+      <c r="R4">
+        <v>14.63165891379465</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.59574087167689</v>
+        <v>11.96563065237663</v>
       </c>
       <c r="C5">
-        <v>7.059690145889721</v>
+        <v>7.263606059241535</v>
       </c>
       <c r="D5">
-        <v>6.116948752415741</v>
+        <v>6.125053000011513</v>
       </c>
       <c r="E5">
-        <v>6.204850478791275</v>
+        <v>6.17370455707147</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.6842826256978</v>
+        <v>35.15625659690154</v>
       </c>
       <c r="H5">
-        <v>3.573690402559154</v>
+        <v>3.369404813673418</v>
       </c>
       <c r="I5">
-        <v>4.18291616243903</v>
+        <v>3.930032076849801</v>
       </c>
       <c r="J5">
-        <v>12.70610930994818</v>
+        <v>12.20429192710199</v>
       </c>
       <c r="K5">
-        <v>20.59031225578346</v>
+        <v>19.30496228782128</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.50828649407734</v>
       </c>
       <c r="M5">
-        <v>10.39822883739689</v>
+        <v>13.18906362169918</v>
       </c>
       <c r="N5">
-        <v>6.06793207454707</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.735900286759318</v>
+        <v>10.35609505056704</v>
       </c>
       <c r="P5">
-        <v>15.11619159894453</v>
+        <v>6.285757711724271</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.541390455759</v>
+      </c>
+      <c r="R5">
+        <v>14.66125561769179</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.54828320562768</v>
+        <v>11.92069154647307</v>
       </c>
       <c r="C6">
-        <v>7.044836736464529</v>
+        <v>7.245580887780696</v>
       </c>
       <c r="D6">
-        <v>6.09837774093612</v>
+        <v>6.106465281667909</v>
       </c>
       <c r="E6">
-        <v>6.194925440881335</v>
+        <v>6.165091936722089</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.60912739932833</v>
+        <v>35.09590498989161</v>
       </c>
       <c r="H6">
-        <v>3.584155610848736</v>
+        <v>3.378928438652097</v>
       </c>
       <c r="I6">
-        <v>4.195276325272541</v>
+        <v>3.94189753459015</v>
       </c>
       <c r="J6">
-        <v>12.69551914052505</v>
+        <v>12.19356070612358</v>
       </c>
       <c r="K6">
-        <v>20.56774834796003</v>
+        <v>19.28757386557371</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.4978367286224</v>
       </c>
       <c r="M6">
-        <v>10.36019120157196</v>
+        <v>13.17556253249461</v>
       </c>
       <c r="N6">
-        <v>6.060194494068385</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.715870357681744</v>
+        <v>10.31935566998163</v>
       </c>
       <c r="P6">
-        <v>15.11713239825074</v>
+        <v>6.278274493745315</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.522188489262273</v>
+      </c>
+      <c r="R6">
+        <v>14.66367324783705</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.81295993641752</v>
+        <v>12.16478907661593</v>
       </c>
       <c r="C7">
-        <v>7.203972562244109</v>
+        <v>7.418633505105577</v>
       </c>
       <c r="D7">
-        <v>6.226216600862252</v>
+        <v>6.234378180878037</v>
       </c>
       <c r="E7">
-        <v>6.251754164624758</v>
+        <v>6.215116836868502</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.91525808054027</v>
+        <v>35.37805687017511</v>
       </c>
       <c r="H7">
-        <v>3.516470940094109</v>
+        <v>3.318099912528443</v>
       </c>
       <c r="I7">
-        <v>4.137721152490732</v>
+        <v>3.892903785663882</v>
       </c>
       <c r="J7">
-        <v>12.72860306382263</v>
+        <v>12.18002200015368</v>
       </c>
       <c r="K7">
-        <v>20.63271629641035</v>
+        <v>19.31126108182718</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.48536650881022</v>
       </c>
       <c r="M7">
-        <v>10.60545745403777</v>
+        <v>13.2084594061377</v>
       </c>
       <c r="N7">
-        <v>6.118119525437486</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.837034597022551</v>
+        <v>10.54920167120324</v>
       </c>
       <c r="P7">
-        <v>15.08475092244558</v>
+        <v>6.333583675411628</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.636186841480303</v>
+      </c>
+      <c r="R7">
+        <v>14.62174191842093</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.93652775033907</v>
+        <v>13.20891794861764</v>
       </c>
       <c r="C8">
-        <v>7.86066256971214</v>
+        <v>8.154858378841384</v>
       </c>
       <c r="D8">
-        <v>6.831896137872924</v>
+        <v>6.842692899553886</v>
       </c>
       <c r="E8">
-        <v>6.497144748246847</v>
+        <v>6.429099769696476</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.31701827128663</v>
+        <v>36.54215547401596</v>
       </c>
       <c r="H8">
-        <v>3.22723444591075</v>
+        <v>3.056898809336462</v>
       </c>
       <c r="I8">
-        <v>3.886247976073917</v>
+        <v>3.675624325736054</v>
       </c>
       <c r="J8">
-        <v>12.89106437277248</v>
+        <v>12.23590366524051</v>
       </c>
       <c r="K8">
-        <v>20.94833009819842</v>
+        <v>19.46802813786794</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.46805323746713</v>
       </c>
       <c r="M8">
-        <v>11.63003584071012</v>
+        <v>13.42083695668041</v>
       </c>
       <c r="N8">
-        <v>6.365872062487609</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.36015223732493</v>
+        <v>11.52469491517632</v>
       </c>
       <c r="P8">
-        <v>14.95144557479824</v>
+        <v>6.572475563960703</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.1323014897991</v>
+      </c>
+      <c r="R8">
+        <v>14.45268309114612</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9377127323036</v>
+        <v>15.0749400563425</v>
       </c>
       <c r="C9">
-        <v>9.019799853289575</v>
+        <v>9.483170079673991</v>
       </c>
       <c r="D9">
-        <v>7.941414589475608</v>
+        <v>7.949640334914483</v>
       </c>
       <c r="E9">
-        <v>6.952770431640711</v>
+        <v>6.822895015009968</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.10876497427115</v>
+        <v>38.67879948469016</v>
       </c>
       <c r="H9">
-        <v>2.695127341908154</v>
+        <v>2.575023257125754</v>
       </c>
       <c r="I9">
-        <v>3.416885160004049</v>
+        <v>3.266659419555147</v>
       </c>
       <c r="J9">
-        <v>13.24651446479766</v>
+        <v>12.53679328263994</v>
       </c>
       <c r="K9">
-        <v>21.6197630258077</v>
+        <v>19.86639879124331</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.47747719024422</v>
       </c>
       <c r="M9">
-        <v>13.42402791150237</v>
+        <v>14.01806667674188</v>
       </c>
       <c r="N9">
-        <v>6.823572952603733</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.32745912632568</v>
+        <v>13.25550309329399</v>
       </c>
       <c r="P9">
-        <v>14.71035294850137</v>
+        <v>7.018935036035607</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.05487208271989</v>
+      </c>
+      <c r="R9">
+        <v>14.15053930845674</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.20250221263606</v>
+        <v>16.23029755777867</v>
       </c>
       <c r="C10">
-        <v>9.853091661140603</v>
+        <v>10.3697095889482</v>
       </c>
       <c r="D10">
-        <v>8.677234901519624</v>
+        <v>8.682514386109133</v>
       </c>
       <c r="E10">
-        <v>7.187239038068524</v>
+        <v>7.027697514405917</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.78671565850372</v>
+        <v>40.30415851791653</v>
       </c>
       <c r="H10">
-        <v>2.356458082078097</v>
+        <v>2.274440197207657</v>
       </c>
       <c r="I10">
-        <v>3.106714807241869</v>
+        <v>3.003096334724499</v>
       </c>
       <c r="J10">
-        <v>13.45255330742868</v>
+        <v>12.43809531618571</v>
       </c>
       <c r="K10">
-        <v>21.97865438838673</v>
+        <v>19.98051122142994</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.33197435820494</v>
       </c>
       <c r="M10">
-        <v>14.58664329804644</v>
+        <v>14.38186032373586</v>
       </c>
       <c r="N10">
-        <v>7.040313130556553</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.89596099741493</v>
+        <v>14.34524791679234</v>
       </c>
       <c r="P10">
-        <v>14.49631472980187</v>
+        <v>7.225029741891406</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.58396769314959</v>
+      </c>
+      <c r="R10">
+        <v>13.88428575589448</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27175609496523</v>
+        <v>16.28829838725677</v>
       </c>
       <c r="C11">
-        <v>10.53736117138829</v>
+        <v>10.94461244757627</v>
       </c>
       <c r="D11">
-        <v>8.989721482270987</v>
+        <v>8.993720978362092</v>
       </c>
       <c r="E11">
-        <v>6.777281440282137</v>
+        <v>6.668411205991492</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>41.99245365970282</v>
+        <v>39.40359273804998</v>
       </c>
       <c r="H11">
-        <v>3.178123413003195</v>
+        <v>3.127691356468913</v>
       </c>
       <c r="I11">
-        <v>3.044912536928631</v>
+        <v>2.960755089967519</v>
       </c>
       <c r="J11">
-        <v>13.03096204473818</v>
+        <v>11.54800521864531</v>
       </c>
       <c r="K11">
-        <v>21.06184314811815</v>
+        <v>19.03000408223667</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.53081940687591</v>
       </c>
       <c r="M11">
-        <v>14.91590015330949</v>
+        <v>13.7689895607188</v>
       </c>
       <c r="N11">
-        <v>6.295971012921957</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.33381368256408</v>
+        <v>14.60894533438063</v>
       </c>
       <c r="P11">
-        <v>14.08926456123302</v>
+        <v>6.460816812219258</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.01238685649744</v>
+      </c>
+      <c r="R11">
+        <v>13.52983279834941</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.09019492480334</v>
+        <v>16.13368598843982</v>
       </c>
       <c r="C12">
-        <v>10.92943184634946</v>
+        <v>11.25861441827537</v>
       </c>
       <c r="D12">
-        <v>9.103581344405749</v>
+        <v>9.107373129410387</v>
       </c>
       <c r="E12">
-        <v>6.653728695851719</v>
+        <v>6.582029124739684</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40.18800263055528</v>
+        <v>38.1432659883134</v>
       </c>
       <c r="H12">
-        <v>4.445585779925591</v>
+        <v>4.41030416193509</v>
       </c>
       <c r="I12">
-        <v>3.036319156107528</v>
+        <v>2.954705545098291</v>
       </c>
       <c r="J12">
-        <v>12.64527065729661</v>
+        <v>11.01393065164515</v>
       </c>
       <c r="K12">
-        <v>20.252702865495</v>
+        <v>18.28832935273864</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.96077228800651</v>
       </c>
       <c r="M12">
-        <v>14.96305130094291</v>
+        <v>13.22711233052531</v>
       </c>
       <c r="N12">
-        <v>5.69166235736133</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.74279778360515</v>
+        <v>14.6350200341571</v>
       </c>
       <c r="P12">
-        <v>13.82567549775245</v>
+        <v>5.841982740506247</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.42841693914744</v>
+      </c>
+      <c r="R12">
+        <v>13.33421445712243</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.67571855201754</v>
+        <v>15.78894963144334</v>
       </c>
       <c r="C13">
-        <v>11.15267065727317</v>
+        <v>11.44555768774894</v>
       </c>
       <c r="D13">
-        <v>9.074840142806885</v>
+        <v>9.079445536962972</v>
       </c>
       <c r="E13">
-        <v>6.743602308778465</v>
+        <v>6.708732370286201</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.13891580503745</v>
+        <v>36.25956991129375</v>
       </c>
       <c r="H13">
-        <v>5.813762660256693</v>
+        <v>5.782931223017923</v>
       </c>
       <c r="I13">
-        <v>3.082936019166608</v>
+        <v>2.992357146314135</v>
       </c>
       <c r="J13">
-        <v>12.24246417794556</v>
+        <v>10.76978678334271</v>
       </c>
       <c r="K13">
-        <v>19.43181089673703</v>
+        <v>17.64372558360473</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.50772307591728</v>
       </c>
       <c r="M13">
-        <v>14.79162513287557</v>
+        <v>12.69919962838393</v>
       </c>
       <c r="N13">
-        <v>5.179528429785661</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>10.07578734795916</v>
+        <v>14.48929402036981</v>
       </c>
       <c r="P13">
-        <v>13.64573888485362</v>
+        <v>5.319458465675599</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.785930109226504</v>
+      </c>
+      <c r="R13">
+        <v>13.23629187640203</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26966069887621</v>
+        <v>15.45174353512224</v>
       </c>
       <c r="C14">
-        <v>11.24109300641311</v>
+        <v>11.52667444806599</v>
       </c>
       <c r="D14">
-        <v>8.98990840217974</v>
+        <v>8.995517805631884</v>
       </c>
       <c r="E14">
-        <v>6.933579067043508</v>
+        <v>6.927318414313614</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36.56416544797217</v>
+        <v>34.64215765219664</v>
       </c>
       <c r="H14">
-        <v>6.799914159117118</v>
+        <v>6.769437433709591</v>
       </c>
       <c r="I14">
-        <v>3.143208848810287</v>
+        <v>3.041791072253507</v>
       </c>
       <c r="J14">
-        <v>11.94994712597514</v>
+        <v>10.70963879518922</v>
       </c>
       <c r="K14">
-        <v>18.84776658754451</v>
+        <v>17.22809951689015</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.23283539472142</v>
       </c>
       <c r="M14">
-        <v>14.5693834551512</v>
+        <v>12.33287151240335</v>
       </c>
       <c r="N14">
-        <v>4.893860845845465</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.569277628875115</v>
+        <v>14.30604031359472</v>
       </c>
       <c r="P14">
-        <v>13.56041631456542</v>
+        <v>5.027732379102707</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.304179852839015</v>
+      </c>
+      <c r="R14">
+        <v>13.20928574650022</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.11374684539071</v>
+        <v>15.32136576813801</v>
       </c>
       <c r="C15">
-        <v>11.23239467804762</v>
+        <v>11.52429858519115</v>
       </c>
       <c r="D15">
-        <v>8.938398187017432</v>
+        <v>8.944457327345301</v>
       </c>
       <c r="E15">
-        <v>6.986614017863222</v>
+        <v>6.990088253367048</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36.10779949252674</v>
+        <v>34.11057930769164</v>
       </c>
       <c r="H15">
-        <v>7.03250383236898</v>
+        <v>7.001142508111542</v>
       </c>
       <c r="I15">
-        <v>3.174544578534957</v>
+        <v>3.068763615427124</v>
       </c>
       <c r="J15">
-        <v>11.87168776958472</v>
+        <v>10.73932542899182</v>
       </c>
       <c r="K15">
-        <v>18.69474809264583</v>
+        <v>17.1355698789645</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.17855754807694</v>
       </c>
       <c r="M15">
-        <v>14.46599572237618</v>
+        <v>12.24025887681557</v>
       </c>
       <c r="N15">
-        <v>4.834907201389763</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.427891138131983</v>
+        <v>14.22135575163694</v>
       </c>
       <c r="P15">
-        <v>13.55286433193346</v>
+        <v>4.968408417108867</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.17206900324746</v>
+      </c>
+      <c r="R15">
+        <v>13.21706121931732</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.63589791825595</v>
+        <v>14.9153112070488</v>
       </c>
       <c r="C16">
-        <v>10.87482982352963</v>
+        <v>11.23161654268497</v>
       </c>
       <c r="D16">
-        <v>8.641646741564317</v>
+        <v>8.649504074858902</v>
       </c>
       <c r="E16">
-        <v>6.856954194945904</v>
+        <v>6.88496250507431</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35.68422938223866</v>
+        <v>33.16230310317711</v>
       </c>
       <c r="H16">
-        <v>6.85940756770413</v>
+        <v>6.818114180921733</v>
       </c>
       <c r="I16">
-        <v>3.302681960599331</v>
+        <v>3.174961070577893</v>
       </c>
       <c r="J16">
-        <v>11.85186435338266</v>
+        <v>11.15208313560975</v>
       </c>
       <c r="K16">
-        <v>18.68254712260486</v>
+        <v>17.28073720541154</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.34618612493218</v>
       </c>
       <c r="M16">
-        <v>14.00988670684078</v>
+        <v>12.25987531811348</v>
       </c>
       <c r="N16">
-        <v>4.831323126029425</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.291630585823626</v>
+        <v>13.84236703689709</v>
       </c>
       <c r="P16">
-        <v>13.67638950146128</v>
+        <v>4.977464186589668</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.062578328270364</v>
+      </c>
+      <c r="R16">
+        <v>13.35023949095467</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.48886390589556</v>
+        <v>14.77953621508327</v>
       </c>
       <c r="C17">
-        <v>10.54458580235151</v>
+        <v>10.94134075922823</v>
       </c>
       <c r="D17">
-        <v>8.456435785106427</v>
+        <v>8.465011398451963</v>
       </c>
       <c r="E17">
-        <v>6.629227942173102</v>
+        <v>6.653755329603471</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>36.21756003476028</v>
+        <v>33.40257660070666</v>
       </c>
       <c r="H17">
-        <v>6.177718185789534</v>
+        <v>6.126621703234865</v>
       </c>
       <c r="I17">
-        <v>3.369887652619556</v>
+        <v>3.231932124921105</v>
       </c>
       <c r="J17">
-        <v>11.99317532054477</v>
+        <v>11.45896027651661</v>
       </c>
       <c r="K17">
-        <v>18.98310447211021</v>
+        <v>17.601296183589</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.62071252468159</v>
       </c>
       <c r="M17">
-        <v>13.77643078057831</v>
+        <v>12.45590929843883</v>
       </c>
       <c r="N17">
-        <v>4.966741094201668</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.462608384601959</v>
+        <v>13.63846416113844</v>
       </c>
       <c r="P17">
-        <v>13.81408315130971</v>
+        <v>5.125514800102011</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.2386575564902</v>
+      </c>
+      <c r="R17">
+        <v>13.46876364067476</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62908259831303</v>
+        <v>14.88794031139857</v>
       </c>
       <c r="C18">
-        <v>10.1924876624976</v>
+        <v>10.62954261552861</v>
       </c>
       <c r="D18">
-        <v>8.350116787452903</v>
+        <v>8.358739219533209</v>
       </c>
       <c r="E18">
-        <v>6.42270076299441</v>
+        <v>6.415984982582483</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.67962445071424</v>
+        <v>34.59519683464134</v>
       </c>
       <c r="H18">
-        <v>5.02312938236873</v>
+        <v>4.958975942133967</v>
       </c>
       <c r="I18">
-        <v>3.379952577171013</v>
+        <v>3.238298168730692</v>
       </c>
       <c r="J18">
-        <v>12.29831497878557</v>
+        <v>11.80004357398283</v>
       </c>
       <c r="K18">
-        <v>19.61343945512996</v>
+        <v>18.15746795900688</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.05947140395701</v>
       </c>
       <c r="M18">
-        <v>13.71861386945502</v>
+        <v>12.85547272765448</v>
       </c>
       <c r="N18">
-        <v>5.311577662154746</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.924572023987842</v>
+        <v>13.58375551461119</v>
       </c>
       <c r="P18">
-        <v>13.99757136651482</v>
+        <v>5.48314457307216</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.691313217024316</v>
+      </c>
+      <c r="R18">
+        <v>13.60627716950303</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.95670623464865</v>
+        <v>15.1571088703982</v>
       </c>
       <c r="C19">
-        <v>9.885558406386675</v>
+        <v>10.36659557856469</v>
       </c>
       <c r="D19">
-        <v>8.316437921334634</v>
+        <v>8.324628509464898</v>
       </c>
       <c r="E19">
-        <v>6.461024728219365</v>
+        <v>6.39988877294205</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39.65957444725466</v>
+        <v>36.29603459840311</v>
       </c>
       <c r="H19">
-        <v>3.710459969631102</v>
+        <v>3.628039979155155</v>
       </c>
       <c r="I19">
-        <v>3.358392405230091</v>
+        <v>3.221996793005676</v>
       </c>
       <c r="J19">
-        <v>12.69310056763623</v>
+        <v>12.16009479848195</v>
       </c>
       <c r="K19">
-        <v>20.42744030182595</v>
+        <v>18.83957542637063</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.58185185596715</v>
       </c>
       <c r="M19">
-        <v>13.80032707169108</v>
+        <v>13.36925479439504</v>
       </c>
       <c r="N19">
-        <v>5.88665036590991</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.57762434726518</v>
+        <v>13.65259449088363</v>
       </c>
       <c r="P19">
-        <v>14.2145798514522</v>
+        <v>6.068573712313631</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.32607872596106</v>
+      </c>
+      <c r="R19">
+        <v>13.7589878262032</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82999023037401</v>
+        <v>15.90239205806188</v>
       </c>
       <c r="C20">
-        <v>9.683173331261436</v>
+        <v>10.21958670566985</v>
       </c>
       <c r="D20">
-        <v>8.48886877485281</v>
+        <v>8.495260770426066</v>
       </c>
       <c r="E20">
-        <v>7.113059838350693</v>
+        <v>6.959176881408852</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.15311256288488</v>
+        <v>39.4777787887686</v>
       </c>
       <c r="H20">
-        <v>2.447590991037024</v>
+        <v>2.353306396035181</v>
       </c>
       <c r="I20">
-        <v>3.216638320720852</v>
+        <v>3.103769699292307</v>
       </c>
       <c r="J20">
-        <v>13.35814650815814</v>
+        <v>12.58858428486869</v>
       </c>
       <c r="K20">
-        <v>21.79550083080579</v>
+        <v>19.91061146621151</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.34050090354855</v>
       </c>
       <c r="M20">
-        <v>14.27691302770885</v>
+        <v>14.25262779138791</v>
       </c>
       <c r="N20">
-        <v>6.983544325443418</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.73099002697341</v>
+        <v>14.07524993851133</v>
       </c>
       <c r="P20">
-        <v>14.52698014245042</v>
+        <v>7.172863520055578</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.43641439964293</v>
+      </c>
+      <c r="R20">
+        <v>13.94563709892794</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.84904082734116</v>
+        <v>16.75399532343883</v>
       </c>
       <c r="C21">
-        <v>10.2389620415387</v>
+        <v>10.66224526759552</v>
       </c>
       <c r="D21">
-        <v>9.0302044750579</v>
+        <v>9.032643128733827</v>
       </c>
       <c r="E21">
-        <v>7.413943439778649</v>
+        <v>7.247160079400124</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.90597584116865</v>
+        <v>42.27152434450986</v>
       </c>
       <c r="H21">
-        <v>2.1478439000814</v>
+        <v>2.093125850840482</v>
       </c>
       <c r="I21">
-        <v>2.969502207556119</v>
+        <v>2.903215741756977</v>
       </c>
       <c r="J21">
-        <v>13.6167601767459</v>
+        <v>11.77783562152778</v>
       </c>
       <c r="K21">
-        <v>22.27694200846907</v>
+        <v>19.95678575194775</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.19874167222086</v>
       </c>
       <c r="M21">
-        <v>15.16088541248932</v>
+        <v>14.5117669147761</v>
       </c>
       <c r="N21">
-        <v>7.302837225291743</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.30044922308587</v>
+        <v>14.7982796584092</v>
       </c>
       <c r="P21">
-        <v>14.42571183547753</v>
+        <v>7.475725991290219</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.9383704055172</v>
+      </c>
+      <c r="R21">
+        <v>13.72793941304734</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.47905611291641</v>
+        <v>17.28616921258851</v>
       </c>
       <c r="C22">
-        <v>10.59376658015329</v>
+        <v>10.93423548333815</v>
       </c>
       <c r="D22">
-        <v>9.370109029393275</v>
+        <v>9.369740280245413</v>
       </c>
       <c r="E22">
-        <v>7.570127055058158</v>
+        <v>7.401976849100205</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.96263881382021</v>
+        <v>44.11382427690279</v>
       </c>
       <c r="H22">
-        <v>1.96835823854836</v>
+        <v>1.939037303064242</v>
       </c>
       <c r="I22">
-        <v>2.802809858136535</v>
+        <v>2.764094314147814</v>
       </c>
       <c r="J22">
-        <v>13.77267696870062</v>
+        <v>11.21004109553983</v>
       </c>
       <c r="K22">
-        <v>22.56293500330293</v>
+        <v>19.95011424166282</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.0792093451951</v>
       </c>
       <c r="M22">
-        <v>15.70957317289742</v>
+        <v>14.65877464181784</v>
       </c>
       <c r="N22">
-        <v>7.453428956244765</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.62049839894567</v>
+        <v>15.24030342308179</v>
       </c>
       <c r="P22">
-        <v>14.35135113960514</v>
+        <v>7.615088327751439</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.21396931611816</v>
+      </c>
+      <c r="R22">
+        <v>13.57627172483354</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.16212948585843</v>
+        <v>17.02583921519476</v>
       </c>
       <c r="C23">
-        <v>10.39011669855951</v>
+        <v>10.79511223875078</v>
       </c>
       <c r="D23">
-        <v>9.190078404289249</v>
+        <v>9.191369491751207</v>
       </c>
       <c r="E23">
-        <v>7.49063302961545</v>
+        <v>7.319578656957216</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46671596802329</v>
+        <v>43.03674699269669</v>
       </c>
       <c r="H23">
-        <v>2.062467197134562</v>
+        <v>2.018567859537445</v>
       </c>
       <c r="I23">
-        <v>2.879465659009706</v>
+        <v>2.822839289123005</v>
       </c>
       <c r="J23">
-        <v>13.70309930090862</v>
+        <v>11.62914726798971</v>
       </c>
       <c r="K23">
-        <v>22.44128044850138</v>
+        <v>20.01153231077258</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.18483703540726</v>
       </c>
       <c r="M23">
-        <v>15.42328165796545</v>
+        <v>14.62547830548988</v>
       </c>
       <c r="N23">
-        <v>7.371883543890008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.45573639817543</v>
+        <v>15.02437887882282</v>
       </c>
       <c r="P23">
-        <v>14.39995070415996</v>
+        <v>7.540909113053955</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.07720943227242</v>
+      </c>
+      <c r="R23">
+        <v>13.67159566928886</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.88279811055076</v>
+        <v>15.94925679438786</v>
       </c>
       <c r="C24">
-        <v>9.62123980539481</v>
+        <v>10.16081729776752</v>
       </c>
       <c r="D24">
-        <v>8.480483618003062</v>
+        <v>8.486822971629936</v>
       </c>
       <c r="E24">
-        <v>7.177765071758883</v>
+        <v>7.017784129157419</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.45836355657247</v>
+        <v>39.74246638349725</v>
       </c>
       <c r="H24">
-        <v>2.427892226794011</v>
+        <v>2.333791286336214</v>
       </c>
       <c r="I24">
-        <v>3.196940949864782</v>
+        <v>3.081192947092744</v>
       </c>
       <c r="J24">
-        <v>13.42136302634341</v>
+        <v>12.65294742694977</v>
       </c>
       <c r="K24">
-        <v>21.9321580070589</v>
+        <v>20.03158767041651</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.43447158561287</v>
       </c>
       <c r="M24">
-        <v>14.28484477491088</v>
+        <v>14.34204400578706</v>
       </c>
       <c r="N24">
-        <v>7.058219579966549</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.80475417638835</v>
+        <v>14.0824956633385</v>
       </c>
       <c r="P24">
-        <v>14.57138687387892</v>
+        <v>7.248515033090659</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.50831522060538</v>
+      </c>
+      <c r="R24">
+        <v>13.9796629502303</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.39215400326483</v>
+        <v>14.57255331245721</v>
       </c>
       <c r="C25">
-        <v>8.743694792961767</v>
+        <v>9.179183392059457</v>
       </c>
       <c r="D25">
-        <v>7.655024681639334</v>
+        <v>7.664182775437486</v>
       </c>
       <c r="E25">
-        <v>6.826894775875441</v>
+        <v>6.712450826932217</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>41.25152643873356</v>
+        <v>37.90890077755397</v>
       </c>
       <c r="H25">
-        <v>2.837489599687232</v>
+        <v>2.703008492011626</v>
       </c>
       <c r="I25">
-        <v>3.555714341591842</v>
+        <v>3.39105600606429</v>
       </c>
       <c r="J25">
-        <v>13.12677379848605</v>
+        <v>12.50166085424424</v>
       </c>
       <c r="K25">
-        <v>21.38835725041382</v>
+        <v>19.72993643525562</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.45595692641768</v>
       </c>
       <c r="M25">
-        <v>12.95473075999538</v>
+        <v>13.82338439138428</v>
       </c>
       <c r="N25">
-        <v>6.70512349080354</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.0648749873066</v>
+        <v>12.81182398566673</v>
       </c>
       <c r="P25">
-        <v>14.76085709965611</v>
+        <v>6.903971428237737</v>
       </c>
       <c r="Q25">
+        <v>10.80734368102633</v>
+      </c>
+      <c r="R25">
+        <v>14.22530148215109</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
